--- a/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,18 @@
     <t>['77']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['34', '54', '70']</t>
+  </si>
+  <si>
+    <t>['28', '77']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['22']</t>
   </si>
   <si>
@@ -545,9 +557,6 @@
   </si>
   <si>
     <t>['28']</t>
-  </si>
-  <si>
-    <t>['9']</t>
   </si>
   <si>
     <t>['18', '59']</t>
@@ -704,6 +713,12 @@
   </si>
   <si>
     <t>['5', '13', '38', '41', '56', '58', '66']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1414,7 @@
         <v>2.33</v>
       </c>
       <c r="AT2">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1500,7 +1515,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1587,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT3">
         <v>1.6</v>
@@ -1691,7 +1706,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1778,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT4">
         <v>0.88</v>
@@ -2073,7 +2088,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>12</v>
@@ -2163,7 +2178,7 @@
         <v>1.13</v>
       </c>
       <c r="AT6">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2264,7 +2279,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2351,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
+        <v>1.5</v>
+      </c>
+      <c r="AT7">
         <v>1.29</v>
-      </c>
-      <c r="AT7">
-        <v>1.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2455,7 +2470,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2646,7 +2661,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>-1</v>
@@ -3410,7 +3425,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4365,7 +4380,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4452,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT18">
         <v>2</v>
@@ -4556,7 +4571,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>-1</v>
@@ -4834,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT20">
         <v>0.88</v>
@@ -5028,7 +5043,7 @@
         <v>1.75</v>
       </c>
       <c r="AT21">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5216,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT22">
         <v>0.75</v>
@@ -5320,7 +5335,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5410,7 +5425,7 @@
         <v>2</v>
       </c>
       <c r="AT23">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU23">
         <v>1.48</v>
@@ -5511,7 +5526,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5702,7 +5717,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5893,7 +5908,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6174,7 +6189,7 @@
         <v>2.71</v>
       </c>
       <c r="AT27">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU27">
         <v>1.47</v>
@@ -6365,7 +6380,7 @@
         <v>1.75</v>
       </c>
       <c r="AT28">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU28">
         <v>0.54</v>
@@ -6556,7 +6571,7 @@
         <v>1.8</v>
       </c>
       <c r="AT29">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU29">
         <v>1.3</v>
@@ -6747,7 +6762,7 @@
         <v>1.38</v>
       </c>
       <c r="AT30">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU30">
         <v>1.28</v>
@@ -6848,7 +6863,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -6935,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -7126,10 +7141,10 @@
         <v>0.5</v>
       </c>
       <c r="AS32">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT32">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU32">
         <v>1.02</v>
@@ -7230,7 +7245,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7612,7 +7627,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7699,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
         <v>0.88</v>
@@ -7803,7 +7818,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7994,7 +8009,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8185,7 +8200,7 @@
         <v>81</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8272,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT38">
         <v>2</v>
@@ -8376,7 +8391,7 @@
         <v>107</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8463,10 +8478,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT39">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU39">
         <v>0.91</v>
@@ -8567,7 +8582,7 @@
         <v>108</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8654,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT40">
         <v>0.88</v>
@@ -8758,7 +8773,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8848,7 +8863,7 @@
         <v>0.17</v>
       </c>
       <c r="AT41">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU41">
         <v>1.22</v>
@@ -9140,7 +9155,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9904,7 +9919,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9991,7 +10006,7 @@
         <v>2.25</v>
       </c>
       <c r="AS47">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT47">
         <v>1.6</v>
@@ -10095,7 +10110,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>-1</v>
@@ -10185,7 +10200,7 @@
         <v>1.22</v>
       </c>
       <c r="AT48">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU48">
         <v>0.6</v>
@@ -10286,7 +10301,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -10477,7 +10492,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -10668,7 +10683,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10859,7 +10874,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11050,7 +11065,7 @@
         <v>81</v>
       </c>
       <c r="P53" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11137,7 +11152,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT53">
         <v>1.78</v>
@@ -11432,7 +11447,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11623,7 +11638,7 @@
         <v>119</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12005,7 +12020,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>-1</v>
@@ -12286,7 +12301,7 @@
         <v>2</v>
       </c>
       <c r="AT59">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU59">
         <v>1.41</v>
@@ -12578,7 +12593,7 @@
         <v>81</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -12769,7 +12784,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -12960,7 +12975,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13050,7 +13065,7 @@
         <v>1.13</v>
       </c>
       <c r="AT63">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU63">
         <v>1.25</v>
@@ -13342,7 +13357,7 @@
         <v>101</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>-1</v>
@@ -13533,7 +13548,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13915,7 +13930,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14005,7 +14020,7 @@
         <v>2.33</v>
       </c>
       <c r="AT68">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU68">
         <v>1.6</v>
@@ -14106,7 +14121,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14196,7 +14211,7 @@
         <v>1</v>
       </c>
       <c r="AT69">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU69">
         <v>0.95</v>
@@ -14488,7 +14503,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14960,7 +14975,7 @@
         <v>1.38</v>
       </c>
       <c r="AT73">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU73">
         <v>1.34</v>
@@ -15061,7 +15076,7 @@
         <v>131</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15148,10 +15163,10 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT74">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU74">
         <v>1.58</v>
@@ -15634,7 +15649,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16016,7 +16031,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -16207,7 +16222,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>-1</v>
@@ -16294,7 +16309,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT80">
         <v>2</v>
@@ -16488,7 +16503,7 @@
         <v>0.71</v>
       </c>
       <c r="AT81">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU81">
         <v>0.89</v>
@@ -16676,7 +16691,7 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT82">
         <v>1.78</v>
@@ -16780,7 +16795,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -17162,7 +17177,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17544,7 +17559,7 @@
         <v>81</v>
       </c>
       <c r="P87" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17631,7 +17646,7 @@
         <v>0.4</v>
       </c>
       <c r="AS87">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT87">
         <v>1.13</v>
@@ -17825,7 +17840,7 @@
         <v>1.8</v>
       </c>
       <c r="AT88">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU88">
         <v>1.57</v>
@@ -17926,7 +17941,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>-1</v>
@@ -18117,7 +18132,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18499,7 +18514,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>8</v>
@@ -18881,7 +18896,7 @@
         <v>81</v>
       </c>
       <c r="P94" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19159,10 +19174,10 @@
         <v>0.83</v>
       </c>
       <c r="AS95">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT95">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU95">
         <v>0.88</v>
@@ -19263,7 +19278,7 @@
         <v>127</v>
       </c>
       <c r="P96" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19454,7 +19469,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19541,7 +19556,7 @@
         <v>1.5</v>
       </c>
       <c r="AS97">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT97">
         <v>2</v>
@@ -19732,10 +19747,10 @@
         <v>1.6</v>
       </c>
       <c r="AS98">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT98">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU98">
         <v>1.86</v>
@@ -19836,7 +19851,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20027,7 +20042,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20305,10 +20320,10 @@
         <v>1.67</v>
       </c>
       <c r="AS101">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT101">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU101">
         <v>0.99</v>
@@ -20409,7 +20424,7 @@
         <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20499,7 +20514,7 @@
         <v>1.75</v>
       </c>
       <c r="AT102">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU102">
         <v>1.17</v>
@@ -20687,10 +20702,10 @@
         <v>0.71</v>
       </c>
       <c r="AS103">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT103">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU103">
         <v>0.95</v>
@@ -20791,7 +20806,7 @@
         <v>81</v>
       </c>
       <c r="P104" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20982,7 +20997,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21260,10 +21275,10 @@
         <v>1.43</v>
       </c>
       <c r="AS106">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT106">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU106">
         <v>0.96</v>
@@ -21451,7 +21466,7 @@
         <v>1.78</v>
       </c>
       <c r="AS107">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT107">
         <v>1.6</v>
@@ -21645,7 +21660,7 @@
         <v>1.8</v>
       </c>
       <c r="AT108">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU108">
         <v>1.58</v>
@@ -21746,7 +21761,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22024,7 +22039,7 @@
         <v>1.14</v>
       </c>
       <c r="AS110">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT110">
         <v>1</v>
@@ -22319,7 +22334,7 @@
         <v>156</v>
       </c>
       <c r="P112" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q112">
         <v>-1</v>
@@ -22600,7 +22615,7 @@
         <v>1.8</v>
       </c>
       <c r="AT113">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU113">
         <v>1.6</v>
@@ -22701,7 +22716,7 @@
         <v>158</v>
       </c>
       <c r="P114" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q114">
         <v>10</v>
@@ -22788,7 +22803,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT114">
         <v>0.75</v>
@@ -22892,7 +22907,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -22979,7 +22994,7 @@
         <v>0.57</v>
       </c>
       <c r="AS115">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT115">
         <v>0.88</v>
@@ -23083,7 +23098,7 @@
         <v>159</v>
       </c>
       <c r="P116" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23274,7 +23289,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q117">
         <v>12</v>
@@ -23364,7 +23379,7 @@
         <v>2</v>
       </c>
       <c r="AT117">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU117">
         <v>1.38</v>
@@ -23465,7 +23480,7 @@
         <v>138</v>
       </c>
       <c r="P118" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23552,7 +23567,7 @@
         <v>2.25</v>
       </c>
       <c r="AS118">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT118">
         <v>2.5</v>
@@ -23847,7 +23862,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24038,7 +24053,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24229,7 +24244,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24420,7 +24435,7 @@
         <v>139</v>
       </c>
       <c r="P123" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24611,7 +24626,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24802,7 +24817,7 @@
         <v>81</v>
       </c>
       <c r="P125" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25135,6 +25150,770 @@
       </c>
       <c r="BK126">
         <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>3543320</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44996.33333333334</v>
+      </c>
+      <c r="F127">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>79</v>
+      </c>
+      <c r="H127" t="s">
+        <v>76</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>165</v>
+      </c>
+      <c r="P127" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>7</v>
+      </c>
+      <c r="S127">
+        <v>10</v>
+      </c>
+      <c r="T127">
+        <v>4.72</v>
+      </c>
+      <c r="U127">
+        <v>2.12</v>
+      </c>
+      <c r="V127">
+        <v>2.62</v>
+      </c>
+      <c r="W127">
+        <v>1.46</v>
+      </c>
+      <c r="X127">
+        <v>2.6</v>
+      </c>
+      <c r="Y127">
+        <v>3.15</v>
+      </c>
+      <c r="Z127">
+        <v>1.33</v>
+      </c>
+      <c r="AA127">
+        <v>8</v>
+      </c>
+      <c r="AB127">
+        <v>1.06</v>
+      </c>
+      <c r="AC127">
+        <v>3.95</v>
+      </c>
+      <c r="AD127">
+        <v>3.25</v>
+      </c>
+      <c r="AE127">
+        <v>1.9</v>
+      </c>
+      <c r="AF127">
+        <v>1.06</v>
+      </c>
+      <c r="AG127">
+        <v>9.5</v>
+      </c>
+      <c r="AH127">
+        <v>1.35</v>
+      </c>
+      <c r="AI127">
+        <v>2.95</v>
+      </c>
+      <c r="AJ127">
+        <v>2.15</v>
+      </c>
+      <c r="AK127">
+        <v>1.62</v>
+      </c>
+      <c r="AL127">
+        <v>2</v>
+      </c>
+      <c r="AM127">
+        <v>1.77</v>
+      </c>
+      <c r="AN127">
+        <v>1.9</v>
+      </c>
+      <c r="AO127">
+        <v>1.3</v>
+      </c>
+      <c r="AP127">
+        <v>1.24</v>
+      </c>
+      <c r="AQ127">
+        <v>0.71</v>
+      </c>
+      <c r="AR127">
+        <v>1.33</v>
+      </c>
+      <c r="AS127">
+        <v>0.75</v>
+      </c>
+      <c r="AT127">
+        <v>1.29</v>
+      </c>
+      <c r="AU127">
+        <v>1.12</v>
+      </c>
+      <c r="AV127">
+        <v>1.23</v>
+      </c>
+      <c r="AW127">
+        <v>2.35</v>
+      </c>
+      <c r="AX127">
+        <v>2.39</v>
+      </c>
+      <c r="AY127">
+        <v>7.6</v>
+      </c>
+      <c r="AZ127">
+        <v>1.8</v>
+      </c>
+      <c r="BA127">
+        <v>1.27</v>
+      </c>
+      <c r="BB127">
+        <v>1.5</v>
+      </c>
+      <c r="BC127">
+        <v>1.9</v>
+      </c>
+      <c r="BD127">
+        <v>2.45</v>
+      </c>
+      <c r="BE127">
+        <v>3.4</v>
+      </c>
+      <c r="BF127">
+        <v>4</v>
+      </c>
+      <c r="BG127">
+        <v>7</v>
+      </c>
+      <c r="BH127">
+        <v>4</v>
+      </c>
+      <c r="BI127">
+        <v>5</v>
+      </c>
+      <c r="BJ127">
+        <v>8</v>
+      </c>
+      <c r="BK127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>3543323</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44996.375</v>
+      </c>
+      <c r="F128">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>67</v>
+      </c>
+      <c r="H128" t="s">
+        <v>72</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128" t="s">
+        <v>166</v>
+      </c>
+      <c r="P128" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q128">
+        <v>7</v>
+      </c>
+      <c r="R128">
+        <v>5</v>
+      </c>
+      <c r="S128">
+        <v>12</v>
+      </c>
+      <c r="T128">
+        <v>1.95</v>
+      </c>
+      <c r="U128">
+        <v>2.5</v>
+      </c>
+      <c r="V128">
+        <v>6.55</v>
+      </c>
+      <c r="W128">
+        <v>1.32</v>
+      </c>
+      <c r="X128">
+        <v>3.2</v>
+      </c>
+      <c r="Y128">
+        <v>2.5</v>
+      </c>
+      <c r="Z128">
+        <v>1.49</v>
+      </c>
+      <c r="AA128">
+        <v>5.8</v>
+      </c>
+      <c r="AB128">
+        <v>1.11</v>
+      </c>
+      <c r="AC128">
+        <v>1.45</v>
+      </c>
+      <c r="AD128">
+        <v>4.2</v>
+      </c>
+      <c r="AE128">
+        <v>6.25</v>
+      </c>
+      <c r="AF128">
+        <v>1.03</v>
+      </c>
+      <c r="AG128">
+        <v>15</v>
+      </c>
+      <c r="AH128">
+        <v>1.22</v>
+      </c>
+      <c r="AI128">
+        <v>4</v>
+      </c>
+      <c r="AJ128">
+        <v>1.7</v>
+      </c>
+      <c r="AK128">
+        <v>2</v>
+      </c>
+      <c r="AL128">
+        <v>1.96</v>
+      </c>
+      <c r="AM128">
+        <v>1.8</v>
+      </c>
+      <c r="AN128">
+        <v>1.09</v>
+      </c>
+      <c r="AO128">
+        <v>1.18</v>
+      </c>
+      <c r="AP128">
+        <v>2.9</v>
+      </c>
+      <c r="AQ128">
+        <v>2.14</v>
+      </c>
+      <c r="AR128">
+        <v>0.63</v>
+      </c>
+      <c r="AS128">
+        <v>2.25</v>
+      </c>
+      <c r="AT128">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU128">
+        <v>1.83</v>
+      </c>
+      <c r="AV128">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AW128">
+        <v>2.52</v>
+      </c>
+      <c r="AX128">
+        <v>1.21</v>
+      </c>
+      <c r="AY128">
+        <v>10</v>
+      </c>
+      <c r="AZ128">
+        <v>6.9</v>
+      </c>
+      <c r="BA128">
+        <v>1.3</v>
+      </c>
+      <c r="BB128">
+        <v>1.58</v>
+      </c>
+      <c r="BC128">
+        <v>2</v>
+      </c>
+      <c r="BD128">
+        <v>2.7</v>
+      </c>
+      <c r="BE128">
+        <v>3.75</v>
+      </c>
+      <c r="BF128">
+        <v>7</v>
+      </c>
+      <c r="BG128">
+        <v>5</v>
+      </c>
+      <c r="BH128">
+        <v>9</v>
+      </c>
+      <c r="BI128">
+        <v>5</v>
+      </c>
+      <c r="BJ128">
+        <v>16</v>
+      </c>
+      <c r="BK128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>3543322</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44996.375</v>
+      </c>
+      <c r="F129">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>70</v>
+      </c>
+      <c r="H129" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>167</v>
+      </c>
+      <c r="P129" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q129">
+        <v>10</v>
+      </c>
+      <c r="R129">
+        <v>7</v>
+      </c>
+      <c r="S129">
+        <v>17</v>
+      </c>
+      <c r="T129">
+        <v>3.34</v>
+      </c>
+      <c r="U129">
+        <v>2.07</v>
+      </c>
+      <c r="V129">
+        <v>3.44</v>
+      </c>
+      <c r="W129">
+        <v>1.47</v>
+      </c>
+      <c r="X129">
+        <v>2.55</v>
+      </c>
+      <c r="Y129">
+        <v>3.2</v>
+      </c>
+      <c r="Z129">
+        <v>1.32</v>
+      </c>
+      <c r="AA129">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB129">
+        <v>1.05</v>
+      </c>
+      <c r="AC129">
+        <v>2.26</v>
+      </c>
+      <c r="AD129">
+        <v>3.25</v>
+      </c>
+      <c r="AE129">
+        <v>3.22</v>
+      </c>
+      <c r="AF129">
+        <v>1.06</v>
+      </c>
+      <c r="AG129">
+        <v>9.5</v>
+      </c>
+      <c r="AH129">
+        <v>1.32</v>
+      </c>
+      <c r="AI129">
+        <v>3.05</v>
+      </c>
+      <c r="AJ129">
+        <v>2.2</v>
+      </c>
+      <c r="AK129">
+        <v>1.6</v>
+      </c>
+      <c r="AL129">
+        <v>1.95</v>
+      </c>
+      <c r="AM129">
+        <v>1.81</v>
+      </c>
+      <c r="AN129">
+        <v>1.47</v>
+      </c>
+      <c r="AO129">
+        <v>1.33</v>
+      </c>
+      <c r="AP129">
+        <v>1.5</v>
+      </c>
+      <c r="AQ129">
+        <v>1.29</v>
+      </c>
+      <c r="AR129">
+        <v>1.22</v>
+      </c>
+      <c r="AS129">
+        <v>1.5</v>
+      </c>
+      <c r="AT129">
+        <v>1.1</v>
+      </c>
+      <c r="AU129">
+        <v>1.04</v>
+      </c>
+      <c r="AV129">
+        <v>0.97</v>
+      </c>
+      <c r="AW129">
+        <v>2.01</v>
+      </c>
+      <c r="AX129">
+        <v>1.87</v>
+      </c>
+      <c r="AY129">
+        <v>6.5</v>
+      </c>
+      <c r="AZ129">
+        <v>2.6</v>
+      </c>
+      <c r="BA129">
+        <v>1.3</v>
+      </c>
+      <c r="BB129">
+        <v>1.58</v>
+      </c>
+      <c r="BC129">
+        <v>1.98</v>
+      </c>
+      <c r="BD129">
+        <v>2.7</v>
+      </c>
+      <c r="BE129">
+        <v>3.75</v>
+      </c>
+      <c r="BF129">
+        <v>7</v>
+      </c>
+      <c r="BG129">
+        <v>5</v>
+      </c>
+      <c r="BH129">
+        <v>5</v>
+      </c>
+      <c r="BI129">
+        <v>3</v>
+      </c>
+      <c r="BJ129">
+        <v>12</v>
+      </c>
+      <c r="BK129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>3543318</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>66</v>
+      </c>
+      <c r="H130" t="s">
+        <v>73</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>168</v>
+      </c>
+      <c r="P130" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q130">
+        <v>-1</v>
+      </c>
+      <c r="R130">
+        <v>-1</v>
+      </c>
+      <c r="S130">
+        <v>-1</v>
+      </c>
+      <c r="T130">
+        <v>3.3</v>
+      </c>
+      <c r="U130">
+        <v>2.21</v>
+      </c>
+      <c r="V130">
+        <v>3.15</v>
+      </c>
+      <c r="W130">
+        <v>1.38</v>
+      </c>
+      <c r="X130">
+        <v>2.9</v>
+      </c>
+      <c r="Y130">
+        <v>2.75</v>
+      </c>
+      <c r="Z130">
+        <v>1.41</v>
+      </c>
+      <c r="AA130">
+        <v>6.7</v>
+      </c>
+      <c r="AB130">
+        <v>1.09</v>
+      </c>
+      <c r="AC130">
+        <v>2.3</v>
+      </c>
+      <c r="AD130">
+        <v>3.38</v>
+      </c>
+      <c r="AE130">
+        <v>3.04</v>
+      </c>
+      <c r="AF130">
+        <v>1.05</v>
+      </c>
+      <c r="AG130">
+        <v>9.25</v>
+      </c>
+      <c r="AH130">
+        <v>1.29</v>
+      </c>
+      <c r="AI130">
+        <v>3.25</v>
+      </c>
+      <c r="AJ130">
+        <v>1.85</v>
+      </c>
+      <c r="AK130">
+        <v>1.85</v>
+      </c>
+      <c r="AL130">
+        <v>1.73</v>
+      </c>
+      <c r="AM130">
+        <v>2.05</v>
+      </c>
+      <c r="AN130">
+        <v>1.53</v>
+      </c>
+      <c r="AO130">
+        <v>1.3</v>
+      </c>
+      <c r="AP130">
+        <v>1.47</v>
+      </c>
+      <c r="AQ130">
+        <v>0.63</v>
+      </c>
+      <c r="AR130">
+        <v>1.14</v>
+      </c>
+      <c r="AS130">
+        <v>0.67</v>
+      </c>
+      <c r="AT130">
+        <v>1.13</v>
+      </c>
+      <c r="AU130">
+        <v>1.19</v>
+      </c>
+      <c r="AV130">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW130">
+        <v>2.13</v>
+      </c>
+      <c r="AX130">
+        <v>1.87</v>
+      </c>
+      <c r="AY130">
+        <v>6.5</v>
+      </c>
+      <c r="AZ130">
+        <v>2.6</v>
+      </c>
+      <c r="BA130">
+        <v>1.27</v>
+      </c>
+      <c r="BB130">
+        <v>1.5</v>
+      </c>
+      <c r="BC130">
+        <v>1.9</v>
+      </c>
+      <c r="BD130">
+        <v>2.45</v>
+      </c>
+      <c r="BE130">
+        <v>3.4</v>
+      </c>
+      <c r="BF130">
+        <v>-1</v>
+      </c>
+      <c r="BG130">
+        <v>-1</v>
+      </c>
+      <c r="BH130">
+        <v>-1</v>
+      </c>
+      <c r="BI130">
+        <v>-1</v>
+      </c>
+      <c r="BJ130">
+        <v>-1</v>
+      </c>
+      <c r="BK130">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,9 @@
     <t>['9']</t>
   </si>
   <si>
+    <t>['48', '60']</t>
+  </si>
+  <si>
     <t>['22']</t>
   </si>
   <si>
@@ -719,6 +722,12 @@
   </si>
   <si>
     <t>['87']</t>
+  </si>
+  <si>
+    <t>['25', '85']</t>
+  </si>
+  <si>
+    <t>['58', '80', '84']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK130"/>
+  <dimension ref="A1:BK134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,7 +1524,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1706,7 +1715,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1796,7 +1805,7 @@
         <v>2.25</v>
       </c>
       <c r="AT4">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2088,7 +2097,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>12</v>
@@ -2175,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>1.1</v>
@@ -2279,7 +2288,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2470,7 +2479,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2661,7 +2670,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>-1</v>
@@ -3425,7 +3434,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4085,10 +4094,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT16">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU16">
         <v>1.69</v>
@@ -4276,7 +4285,7 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT17">
         <v>1.6</v>
@@ -4380,7 +4389,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4470,7 +4479,7 @@
         <v>2.25</v>
       </c>
       <c r="AT18">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU18">
         <v>1.99</v>
@@ -4571,7 +4580,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>-1</v>
@@ -4661,7 +4670,7 @@
         <v>1.22</v>
       </c>
       <c r="AT19">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU19">
         <v>0.44</v>
@@ -5040,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT21">
         <v>0.5600000000000001</v>
@@ -5234,7 +5243,7 @@
         <v>0.75</v>
       </c>
       <c r="AT22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5335,7 +5344,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5526,7 +5535,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5613,7 +5622,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT24">
         <v>1.78</v>
@@ -5717,7 +5726,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5804,7 +5813,7 @@
         <v>2</v>
       </c>
       <c r="AS25">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT25">
         <v>1.6</v>
@@ -6186,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT27">
         <v>1.13</v>
@@ -6863,7 +6872,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7245,7 +7254,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7332,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AT33">
         <v>1.14</v>
@@ -7526,7 +7535,7 @@
         <v>1.22</v>
       </c>
       <c r="AT34">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>0.44</v>
@@ -7627,7 +7636,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7717,7 +7726,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU35">
         <v>1.09</v>
@@ -7818,7 +7827,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8009,7 +8018,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8099,7 +8108,7 @@
         <v>0.71</v>
       </c>
       <c r="AT37">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU37">
         <v>1.29</v>
@@ -8200,7 +8209,7 @@
         <v>81</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8290,7 +8299,7 @@
         <v>0.75</v>
       </c>
       <c r="AT38">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU38">
         <v>0.9399999999999999</v>
@@ -8391,7 +8400,7 @@
         <v>107</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8582,7 +8591,7 @@
         <v>108</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8773,7 +8782,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8860,7 +8869,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AT41">
         <v>1.1</v>
@@ -9155,7 +9164,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9433,7 +9442,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT44">
         <v>1.78</v>
@@ -9624,7 +9633,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -9919,7 +9928,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10110,7 +10119,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>-1</v>
@@ -10301,7 +10310,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -10391,7 +10400,7 @@
         <v>0.71</v>
       </c>
       <c r="AT49">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU49">
         <v>1.05</v>
@@ -10492,7 +10501,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -10579,7 +10588,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>2.13</v>
@@ -10683,7 +10692,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10773,7 +10782,7 @@
         <v>2.33</v>
       </c>
       <c r="AT51">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU51">
         <v>1.92</v>
@@ -10874,7 +10883,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11065,7 +11074,7 @@
         <v>81</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11447,7 +11456,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11638,7 +11647,7 @@
         <v>119</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11725,7 +11734,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT56">
         <v>0.88</v>
@@ -11919,7 +11928,7 @@
         <v>2.33</v>
       </c>
       <c r="AT57">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>1.73</v>
@@ -12020,7 +12029,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>-1</v>
@@ -12492,7 +12501,7 @@
         <v>1.8</v>
       </c>
       <c r="AT60">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU60">
         <v>1.5</v>
@@ -12593,7 +12602,7 @@
         <v>81</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -12784,7 +12793,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -12871,7 +12880,7 @@
         <v>1.5</v>
       </c>
       <c r="AS62">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AT62">
         <v>1.78</v>
@@ -12975,7 +12984,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13062,7 +13071,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT63">
         <v>1.13</v>
@@ -13253,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT64">
         <v>0.88</v>
@@ -13357,7 +13366,7 @@
         <v>101</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>-1</v>
@@ -13548,7 +13557,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13930,7 +13939,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14399,7 +14408,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT70">
         <v>1.13</v>
@@ -14503,7 +14512,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15076,7 +15085,7 @@
         <v>131</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15357,7 +15366,7 @@
         <v>2</v>
       </c>
       <c r="AT75">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>1.12</v>
@@ -15649,7 +15658,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15927,7 +15936,7 @@
         <v>1.4</v>
       </c>
       <c r="AS78">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16031,7 +16040,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -16118,7 +16127,7 @@
         <v>0.2</v>
       </c>
       <c r="AS79">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT79">
         <v>0.88</v>
@@ -16222,7 +16231,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>-1</v>
@@ -16312,7 +16321,7 @@
         <v>0.67</v>
       </c>
       <c r="AT80">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU80">
         <v>0.88</v>
@@ -16795,7 +16804,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -17073,10 +17082,10 @@
         <v>0.8</v>
       </c>
       <c r="AS84">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT84">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU84">
         <v>1.03</v>
@@ -17177,7 +17186,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17264,10 +17273,10 @@
         <v>3</v>
       </c>
       <c r="AS85">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AT85">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU85">
         <v>1.3</v>
@@ -17559,7 +17568,7 @@
         <v>81</v>
       </c>
       <c r="P87" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17941,7 +17950,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>-1</v>
@@ -18132,7 +18141,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18514,7 +18523,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q92">
         <v>8</v>
@@ -18795,7 +18804,7 @@
         <v>1.8</v>
       </c>
       <c r="AT93">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU93">
         <v>1.54</v>
@@ -18896,7 +18905,7 @@
         <v>81</v>
       </c>
       <c r="P94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19278,7 +19287,7 @@
         <v>127</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19365,7 +19374,7 @@
         <v>1.17</v>
       </c>
       <c r="AS96">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT96">
         <v>1</v>
@@ -19469,7 +19478,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19559,7 +19568,7 @@
         <v>1.5</v>
       </c>
       <c r="AT97">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU97">
         <v>1.06</v>
@@ -19851,7 +19860,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19938,10 +19947,10 @@
         <v>3</v>
       </c>
       <c r="AS99">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT99">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU99">
         <v>2</v>
@@ -20042,7 +20051,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20132,7 +20141,7 @@
         <v>1.75</v>
       </c>
       <c r="AT100">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU100">
         <v>0.87</v>
@@ -20424,7 +20433,7 @@
         <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20511,7 +20520,7 @@
         <v>0.75</v>
       </c>
       <c r="AS102">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT102">
         <v>1.13</v>
@@ -20806,7 +20815,7 @@
         <v>81</v>
       </c>
       <c r="P104" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20893,10 +20902,10 @@
         <v>1.8</v>
       </c>
       <c r="AS104">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AT104">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU104">
         <v>1.12</v>
@@ -20997,7 +21006,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21087,7 +21096,7 @@
         <v>2.33</v>
       </c>
       <c r="AT105">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU105">
         <v>1.52</v>
@@ -21761,7 +21770,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21851,7 +21860,7 @@
         <v>1</v>
       </c>
       <c r="AT109">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU109">
         <v>1.11</v>
@@ -22334,7 +22343,7 @@
         <v>156</v>
       </c>
       <c r="P112" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q112">
         <v>-1</v>
@@ -22421,7 +22430,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT112">
         <v>2.13</v>
@@ -22716,7 +22725,7 @@
         <v>158</v>
       </c>
       <c r="P114" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q114">
         <v>10</v>
@@ -22806,7 +22815,7 @@
         <v>2.25</v>
       </c>
       <c r="AT114">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU114">
         <v>1.83</v>
@@ -22907,7 +22916,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23098,7 +23107,7 @@
         <v>159</v>
       </c>
       <c r="P116" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23185,7 +23194,7 @@
         <v>0.83</v>
       </c>
       <c r="AS116">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT116">
         <v>1.13</v>
@@ -23289,7 +23298,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q117">
         <v>12</v>
@@ -23480,7 +23489,7 @@
         <v>138</v>
       </c>
       <c r="P118" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23570,7 +23579,7 @@
         <v>0.75</v>
       </c>
       <c r="AT118">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU118">
         <v>1.16</v>
@@ -23758,10 +23767,10 @@
         <v>0.86</v>
       </c>
       <c r="AS119">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT119">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU119">
         <v>1.11</v>
@@ -23862,7 +23871,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24053,7 +24062,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24244,7 +24253,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24331,7 +24340,7 @@
         <v>0.86</v>
       </c>
       <c r="AS122">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AT122">
         <v>1.13</v>
@@ -24435,7 +24444,7 @@
         <v>139</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24626,7 +24635,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24817,7 +24826,7 @@
         <v>81</v>
       </c>
       <c r="P125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -24907,7 +24916,7 @@
         <v>1.22</v>
       </c>
       <c r="AT125">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU125">
         <v>1</v>
@@ -25199,7 +25208,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25390,7 +25399,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25772,16 +25781,16 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R130">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S130">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T130">
         <v>3.3</v>
@@ -25898,22 +25907,786 @@
         <v>3.4</v>
       </c>
       <c r="BF130">
+        <v>4</v>
+      </c>
+      <c r="BG130">
+        <v>6</v>
+      </c>
+      <c r="BH130">
+        <v>2</v>
+      </c>
+      <c r="BI130">
+        <v>1</v>
+      </c>
+      <c r="BJ130">
+        <v>6</v>
+      </c>
+      <c r="BK130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>3543324</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>77</v>
+      </c>
+      <c r="H131" t="s">
+        <v>74</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>81</v>
+      </c>
+      <c r="P131" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q131">
+        <v>6</v>
+      </c>
+      <c r="R131">
+        <v>5</v>
+      </c>
+      <c r="S131">
+        <v>11</v>
+      </c>
+      <c r="T131">
+        <v>3.46</v>
+      </c>
+      <c r="U131">
+        <v>2.31</v>
+      </c>
+      <c r="V131">
+        <v>2.92</v>
+      </c>
+      <c r="W131">
+        <v>1.33</v>
+      </c>
+      <c r="X131">
+        <v>3.1</v>
+      </c>
+      <c r="Y131">
+        <v>2.55</v>
+      </c>
+      <c r="Z131">
+        <v>1.47</v>
+      </c>
+      <c r="AA131">
+        <v>6</v>
+      </c>
+      <c r="AB131">
+        <v>1.11</v>
+      </c>
+      <c r="AC131">
+        <v>2.4</v>
+      </c>
+      <c r="AD131">
+        <v>3.45</v>
+      </c>
+      <c r="AE131">
+        <v>2.54</v>
+      </c>
+      <c r="AF131">
+        <v>1.03</v>
+      </c>
+      <c r="AG131">
+        <v>14</v>
+      </c>
+      <c r="AH131">
+        <v>1.22</v>
+      </c>
+      <c r="AI131">
+        <v>3.9</v>
+      </c>
+      <c r="AJ131">
+        <v>1.91</v>
+      </c>
+      <c r="AK131">
+        <v>1.95</v>
+      </c>
+      <c r="AL131">
+        <v>1.64</v>
+      </c>
+      <c r="AM131">
+        <v>2.17</v>
+      </c>
+      <c r="AN131">
+        <v>1.63</v>
+      </c>
+      <c r="AO131">
+        <v>1.27</v>
+      </c>
+      <c r="AP131">
+        <v>1.41</v>
+      </c>
+      <c r="AQ131">
+        <v>2.71</v>
+      </c>
+      <c r="AR131">
+        <v>2</v>
+      </c>
+      <c r="AS131">
+        <v>2.38</v>
+      </c>
+      <c r="AT131">
+        <v>2.14</v>
+      </c>
+      <c r="AU131">
+        <v>1.91</v>
+      </c>
+      <c r="AV131">
+        <v>1.59</v>
+      </c>
+      <c r="AW131">
+        <v>3.5</v>
+      </c>
+      <c r="AX131">
+        <v>2.78</v>
+      </c>
+      <c r="AY131">
+        <v>7.2</v>
+      </c>
+      <c r="AZ131">
+        <v>1.67</v>
+      </c>
+      <c r="BA131">
+        <v>1.36</v>
+      </c>
+      <c r="BB131">
+        <v>1.66</v>
+      </c>
+      <c r="BC131">
+        <v>2.12</v>
+      </c>
+      <c r="BD131">
+        <v>2.9</v>
+      </c>
+      <c r="BE131">
+        <v>4.1</v>
+      </c>
+      <c r="BF131">
+        <v>5</v>
+      </c>
+      <c r="BG131">
+        <v>5</v>
+      </c>
+      <c r="BH131">
+        <v>1</v>
+      </c>
+      <c r="BI131">
+        <v>1</v>
+      </c>
+      <c r="BJ131">
+        <v>6</v>
+      </c>
+      <c r="BK131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>3543321</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>80</v>
+      </c>
+      <c r="H132" t="s">
+        <v>71</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132" t="s">
+        <v>169</v>
+      </c>
+      <c r="P132" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q132">
         <v>-1</v>
       </c>
-      <c r="BG130">
+      <c r="R132">
         <v>-1</v>
       </c>
-      <c r="BH130">
+      <c r="S132">
         <v>-1</v>
       </c>
-      <c r="BI130">
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>2.69</v>
+      </c>
+      <c r="AD132">
+        <v>3.35</v>
+      </c>
+      <c r="AE132">
+        <v>2.33</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>0</v>
+      </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
+        <v>2.04</v>
+      </c>
+      <c r="AK132">
+        <v>1.82</v>
+      </c>
+      <c r="AL132">
+        <v>0</v>
+      </c>
+      <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>0</v>
+      </c>
+      <c r="AO132">
+        <v>0</v>
+      </c>
+      <c r="AP132">
+        <v>0</v>
+      </c>
+      <c r="AQ132">
+        <v>0.17</v>
+      </c>
+      <c r="AR132">
+        <v>0.88</v>
+      </c>
+      <c r="AS132">
+        <v>0.29</v>
+      </c>
+      <c r="AT132">
+        <v>0.89</v>
+      </c>
+      <c r="AU132">
+        <v>1.17</v>
+      </c>
+      <c r="AV132">
+        <v>1.12</v>
+      </c>
+      <c r="AW132">
+        <v>2.29</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>0</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
         <v>-1</v>
       </c>
-      <c r="BJ130">
+      <c r="BG132">
         <v>-1</v>
       </c>
-      <c r="BK130">
+      <c r="BH132">
         <v>-1</v>
+      </c>
+      <c r="BI132">
+        <v>-1</v>
+      </c>
+      <c r="BJ132">
+        <v>-1</v>
+      </c>
+      <c r="BK132">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>3543325</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44997.375</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s">
+        <v>65</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>3</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>81</v>
+      </c>
+      <c r="P133" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q133">
+        <v>2</v>
+      </c>
+      <c r="R133">
+        <v>5</v>
+      </c>
+      <c r="S133">
+        <v>7</v>
+      </c>
+      <c r="T133">
+        <v>8</v>
+      </c>
+      <c r="U133">
+        <v>2.6</v>
+      </c>
+      <c r="V133">
+        <v>1.79</v>
+      </c>
+      <c r="W133">
+        <v>1.31</v>
+      </c>
+      <c r="X133">
+        <v>3.24</v>
+      </c>
+      <c r="Y133">
+        <v>2.46</v>
+      </c>
+      <c r="Z133">
+        <v>1.51</v>
+      </c>
+      <c r="AA133">
+        <v>5.6</v>
+      </c>
+      <c r="AB133">
+        <v>1.12</v>
+      </c>
+      <c r="AC133">
+        <v>7</v>
+      </c>
+      <c r="AD133">
+        <v>4.45</v>
+      </c>
+      <c r="AE133">
+        <v>1.36</v>
+      </c>
+      <c r="AF133">
+        <v>1.03</v>
+      </c>
+      <c r="AG133">
+        <v>16</v>
+      </c>
+      <c r="AH133">
+        <v>1.2</v>
+      </c>
+      <c r="AI133">
+        <v>4.1</v>
+      </c>
+      <c r="AJ133">
+        <v>1.9</v>
+      </c>
+      <c r="AK133">
+        <v>1.96</v>
+      </c>
+      <c r="AL133">
+        <v>2.15</v>
+      </c>
+      <c r="AM133">
+        <v>1.67</v>
+      </c>
+      <c r="AN133">
+        <v>3.54</v>
+      </c>
+      <c r="AO133">
+        <v>1.15</v>
+      </c>
+      <c r="AP133">
+        <v>1.05</v>
+      </c>
+      <c r="AQ133">
+        <v>1.75</v>
+      </c>
+      <c r="AR133">
+        <v>2.5</v>
+      </c>
+      <c r="AS133">
+        <v>1.56</v>
+      </c>
+      <c r="AT133">
+        <v>2.57</v>
+      </c>
+      <c r="AU133">
+        <v>1.21</v>
+      </c>
+      <c r="AV133">
+        <v>1.93</v>
+      </c>
+      <c r="AW133">
+        <v>3.14</v>
+      </c>
+      <c r="AX133">
+        <v>3.05</v>
+      </c>
+      <c r="AY133">
+        <v>7</v>
+      </c>
+      <c r="AZ133">
+        <v>1.64</v>
+      </c>
+      <c r="BA133">
+        <v>1.27</v>
+      </c>
+      <c r="BB133">
+        <v>1.5</v>
+      </c>
+      <c r="BC133">
+        <v>1.87</v>
+      </c>
+      <c r="BD133">
+        <v>2.45</v>
+      </c>
+      <c r="BE133">
+        <v>3.4</v>
+      </c>
+      <c r="BF133">
+        <v>2</v>
+      </c>
+      <c r="BG133">
+        <v>6</v>
+      </c>
+      <c r="BH133">
+        <v>4</v>
+      </c>
+      <c r="BI133">
+        <v>2</v>
+      </c>
+      <c r="BJ133">
+        <v>6</v>
+      </c>
+      <c r="BK133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>3543319</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>69</v>
+      </c>
+      <c r="H134" t="s">
+        <v>68</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>81</v>
+      </c>
+      <c r="P134" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q134">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>5</v>
+      </c>
+      <c r="T134">
+        <v>3.24</v>
+      </c>
+      <c r="U134">
+        <v>2.1</v>
+      </c>
+      <c r="V134">
+        <v>3.5</v>
+      </c>
+      <c r="W134">
+        <v>1.45</v>
+      </c>
+      <c r="X134">
+        <v>2.6</v>
+      </c>
+      <c r="Y134">
+        <v>3.1</v>
+      </c>
+      <c r="Z134">
+        <v>1.34</v>
+      </c>
+      <c r="AA134">
+        <v>7.9</v>
+      </c>
+      <c r="AB134">
+        <v>1.06</v>
+      </c>
+      <c r="AC134">
+        <v>2.32</v>
+      </c>
+      <c r="AD134">
+        <v>3.25</v>
+      </c>
+      <c r="AE134">
+        <v>2.77</v>
+      </c>
+      <c r="AF134">
+        <v>1.06</v>
+      </c>
+      <c r="AG134">
+        <v>9.75</v>
+      </c>
+      <c r="AH134">
+        <v>1.35</v>
+      </c>
+      <c r="AI134">
+        <v>3</v>
+      </c>
+      <c r="AJ134">
+        <v>2.06</v>
+      </c>
+      <c r="AK134">
+        <v>1.72</v>
+      </c>
+      <c r="AL134">
+        <v>1.83</v>
+      </c>
+      <c r="AM134">
+        <v>1.93</v>
+      </c>
+      <c r="AN134">
+        <v>1.44</v>
+      </c>
+      <c r="AO134">
+        <v>1.34</v>
+      </c>
+      <c r="AP134">
+        <v>1.51</v>
+      </c>
+      <c r="AQ134">
+        <v>1.13</v>
+      </c>
+      <c r="AR134">
+        <v>0.75</v>
+      </c>
+      <c r="AS134">
+        <v>1</v>
+      </c>
+      <c r="AT134">
+        <v>1</v>
+      </c>
+      <c r="AU134">
+        <v>1.42</v>
+      </c>
+      <c r="AV134">
+        <v>0.95</v>
+      </c>
+      <c r="AW134">
+        <v>2.37</v>
+      </c>
+      <c r="AX134">
+        <v>1.95</v>
+      </c>
+      <c r="AY134">
+        <v>6.5</v>
+      </c>
+      <c r="AZ134">
+        <v>2.45</v>
+      </c>
+      <c r="BA134">
+        <v>1.27</v>
+      </c>
+      <c r="BB134">
+        <v>1.5</v>
+      </c>
+      <c r="BC134">
+        <v>1.87</v>
+      </c>
+      <c r="BD134">
+        <v>2.45</v>
+      </c>
+      <c r="BE134">
+        <v>3.4</v>
+      </c>
+      <c r="BF134">
+        <v>4</v>
+      </c>
+      <c r="BG134">
+        <v>3</v>
+      </c>
+      <c r="BH134">
+        <v>9</v>
+      </c>
+      <c r="BI134">
+        <v>2</v>
+      </c>
+      <c r="BJ134">
+        <v>13</v>
+      </c>
+      <c r="BK134">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
@@ -26166,13 +26166,13 @@
         <v>236</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R132">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S132">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T132">
         <v>0</v>
@@ -26289,22 +26289,22 @@
         <v>0</v>
       </c>
       <c r="BF132">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG132">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI132">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ132">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK132">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK135"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.75</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT8" t="n">
         <v>1.6</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>2.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU12" t="n">
         <v>3.09</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU24" t="n">
         <v>1.34</v>
@@ -5978,7 +5978,7 @@
         <v>2.38</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU27" t="n">
         <v>1.47</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT29" t="n">
         <v>0.5600000000000001</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
         <v>1.25</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT33" t="n">
         <v>1.14</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>2.25</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU40" t="n">
         <v>1.5</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT41" t="n">
         <v>1.1</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT43" t="n">
         <v>1.13</v>
@@ -9429,7 +9429,7 @@
         <v>2.38</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU44" t="n">
         <v>1.72</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT46" t="n">
         <v>1.14</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU50" t="n">
         <v>1.43</v>
@@ -11256,7 +11256,7 @@
         <v>0.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU53" t="n">
         <v>0.8100000000000001</v>
@@ -11459,7 +11459,7 @@
         <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU54" t="n">
         <v>1.62</v>
@@ -11659,7 +11659,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT55" t="n">
         <v>1.14</v>
@@ -12674,7 +12674,7 @@
         <v>0.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT60" t="n">
         <v>0.89</v>
@@ -12880,7 +12880,7 @@
         <v>0.75</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU61" t="n">
         <v>1.03</v>
@@ -13080,10 +13080,10 @@
         <v>1.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU62" t="n">
         <v>1.36</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU63" t="n">
         <v>1.25</v>
@@ -13895,7 +13895,7 @@
         <v>1.22</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU66" t="n">
         <v>0.6</v>
@@ -14095,7 +14095,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14907,10 +14907,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU71" t="n">
         <v>1.55</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT73" t="n">
         <v>0.5600000000000001</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU79" t="n">
         <v>1.27</v>
@@ -16940,7 +16940,7 @@
         <v>0.75</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU81" t="n">
         <v>0.89</v>
@@ -17143,7 +17143,7 @@
         <v>1.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU82" t="n">
         <v>1.14</v>
@@ -17346,7 +17346,7 @@
         <v>1.75</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU83" t="n">
         <v>0.91</v>
@@ -17749,7 +17749,7 @@
         <v>3</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT85" t="n">
         <v>2.57</v>
@@ -18358,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT88" t="n">
         <v>1.25</v>
@@ -18561,10 +18561,10 @@
         <v>3</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU89" t="n">
         <v>1.34</v>
@@ -19173,7 +19173,7 @@
         <v>2.33</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU92" t="n">
         <v>1.58</v>
@@ -19373,7 +19373,7 @@
         <v>0.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -19579,7 +19579,7 @@
         <v>0.75</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU94" t="n">
         <v>0.96</v>
@@ -21203,7 +21203,7 @@
         <v>1.56</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU102" t="n">
         <v>1.17</v>
@@ -21606,7 +21606,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT104" t="n">
         <v>2.14</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU108" t="n">
         <v>1.58</v>
@@ -23233,7 +23233,7 @@
         <v>1.56</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU112" t="n">
         <v>1.11</v>
@@ -23433,7 +23433,7 @@
         <v>1.38</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT113" t="n">
         <v>1.1</v>
@@ -23842,7 +23842,7 @@
         <v>0.67</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU115" t="n">
         <v>1.1</v>
@@ -24248,7 +24248,7 @@
         <v>2</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU117" t="n">
         <v>1.38</v>
@@ -24857,7 +24857,7 @@
         <v>2</v>
       </c>
       <c r="AT120" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU120" t="n">
         <v>1.53</v>
@@ -25057,7 +25057,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT121" t="n">
         <v>0.88</v>
@@ -25260,7 +25260,7 @@
         <v>0.86</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT122" t="n">
         <v>1.13</v>
@@ -25666,10 +25666,10 @@
         <v>1.63</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU124" t="n">
         <v>1.34</v>
@@ -26887,7 +26887,7 @@
         <v>0.67</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU130" t="n">
         <v>1.19</v>
@@ -27290,7 +27290,7 @@
         <v>0.88</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT132" t="n">
         <v>0.89</v>
@@ -27954,6 +27954,818 @@
       </c>
       <c r="BK135" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3543329</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45003.33333333334</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Vorskla</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Metalist 1925 Kharkiv</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>9</v>
+      </c>
+      <c r="R136" t="n">
+        <v>5</v>
+      </c>
+      <c r="S136" t="n">
+        <v>14</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V136" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3543326</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="F137" t="n">
+        <v>18</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Lviv</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Hirnyk</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2</v>
+      </c>
+      <c r="N137" t="n">
+        <v>4</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['74', '87']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['19', '79']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>1</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2</v>
+      </c>
+      <c r="S137" t="n">
+        <v>3</v>
+      </c>
+      <c r="T137" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V137" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X137" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3543332</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="F138" t="n">
+        <v>18</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Dynamo Kyiv</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Zorya</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>4</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
+      <c r="S138" t="n">
+        <v>4</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V138" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X138" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3543331</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>18</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Veres Rivne</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Dnipro-1</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK142"/>
+  <dimension ref="A1:BK150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT3" t="n">
         <v>1.6</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.56</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT9" t="n">
         <v>1.9</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT10" t="n">
         <v>1.33</v>
@@ -2730,7 +2730,7 @@
         <v>1.56</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU11" t="n">
         <v>0.04</v>
@@ -2933,7 +2933,7 @@
         <v>2.4</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU12" t="n">
         <v>3.09</v>
@@ -3136,7 +3136,7 @@
         <v>1.64</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT15" t="n">
         <v>1.2</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU16" t="n">
         <v>1.69</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT18" t="n">
         <v>2.25</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.14</v>
       </c>
       <c r="AU18" t="n">
         <v>1.99</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU19" t="n">
         <v>0.44</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU20" t="n">
         <v>0.46</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT23" t="n">
         <v>1.1</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT32" t="n">
         <v>0.5600000000000001</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>1.33</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU35" t="n">
         <v>1.09</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU37" t="n">
         <v>1.29</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU38" t="n">
         <v>0.9399999999999999</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT39" t="n">
         <v>1.25</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU40" t="n">
         <v>1.5</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT41" t="n">
         <v>1.1</v>
@@ -9023,7 +9023,7 @@
         <v>1.56</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU42" t="n">
         <v>0.72</v>
@@ -9835,7 +9835,7 @@
         <v>1.64</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU46" t="n">
         <v>1.49</v>
@@ -10035,7 +10035,7 @@
         <v>2.25</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT47" t="n">
         <v>1.6</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT48" t="n">
         <v>0.5600000000000001</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU49" t="n">
         <v>1.05</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU50" t="n">
         <v>1.43</v>
@@ -10850,7 +10850,7 @@
         <v>2.4</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU51" t="n">
         <v>1.92</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT52" t="n">
         <v>1.6</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT53" t="n">
         <v>1.9</v>
@@ -11456,10 +11456,10 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.62</v>
@@ -11662,7 +11662,7 @@
         <v>1.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU55" t="n">
         <v>1.3</v>
@@ -11865,7 +11865,7 @@
         <v>2.38</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU56" t="n">
         <v>1.94</v>
@@ -12268,7 +12268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT58" t="n">
         <v>1.2</v>
@@ -12471,7 +12471,7 @@
         <v>1.25</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT59" t="n">
         <v>0.5600000000000001</v>
@@ -12677,7 +12677,7 @@
         <v>1.64</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU60" t="n">
         <v>1.5</v>
@@ -12877,10 +12877,10 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU61" t="n">
         <v>1.03</v>
@@ -13080,7 +13080,7 @@
         <v>1.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT62" t="n">
         <v>1.9</v>
@@ -13489,7 +13489,7 @@
         <v>1.56</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU64" t="n">
         <v>0.96</v>
@@ -13892,7 +13892,7 @@
         <v>1.8</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT66" t="n">
         <v>1.9</v>
@@ -14501,7 +14501,7 @@
         <v>2.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT69" t="n">
         <v>1.1</v>
@@ -14910,7 +14910,7 @@
         <v>1.64</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.55</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT74" t="n">
         <v>1.1</v>
@@ -15719,7 +15719,7 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT75" t="n">
         <v>1</v>
@@ -15925,7 +15925,7 @@
         <v>2.4</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU76" t="n">
         <v>1.55</v>
@@ -16125,7 +16125,7 @@
         <v>1.86</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT77" t="n">
         <v>1.6</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU79" t="n">
         <v>1.27</v>
@@ -16734,10 +16734,10 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU80" t="n">
         <v>0.88</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT81" t="n">
         <v>1.11</v>
@@ -17346,7 +17346,7 @@
         <v>1.56</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU83" t="n">
         <v>0.91</v>
@@ -17549,7 +17549,7 @@
         <v>1.56</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU84" t="n">
         <v>1.03</v>
@@ -17749,10 +17749,10 @@
         <v>3</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU85" t="n">
         <v>1.3</v>
@@ -17952,10 +17952,10 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU86" t="n">
         <v>1.11</v>
@@ -18155,7 +18155,7 @@
         <v>0.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT87" t="n">
         <v>1.33</v>
@@ -18564,7 +18564,7 @@
         <v>1.33</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU89" t="n">
         <v>1.34</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT90" t="n">
         <v>1.6</v>
@@ -18967,10 +18967,10 @@
         <v>0.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU91" t="n">
         <v>0.92</v>
@@ -19576,10 +19576,10 @@
         <v>0.17</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU94" t="n">
         <v>0.96</v>
@@ -19779,7 +19779,7 @@
         <v>0.83</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT95" t="n">
         <v>0.5600000000000001</v>
@@ -20188,7 +20188,7 @@
         <v>1.33</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU97" t="n">
         <v>1.06</v>
@@ -20388,7 +20388,7 @@
         <v>1.6</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT98" t="n">
         <v>1.25</v>
@@ -20594,7 +20594,7 @@
         <v>2.38</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU99" t="n">
         <v>2</v>
@@ -20797,7 +20797,7 @@
         <v>1.56</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU100" t="n">
         <v>0.87</v>
@@ -20997,7 +20997,7 @@
         <v>1.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT101" t="n">
         <v>1.1</v>
@@ -21606,10 +21606,10 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU104" t="n">
         <v>1.12</v>
@@ -21812,7 +21812,7 @@
         <v>2.4</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -22012,7 +22012,7 @@
         <v>1.43</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT106" t="n">
         <v>1.1</v>
@@ -22621,7 +22621,7 @@
         <v>0.4</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT109" t="n">
         <v>1</v>
@@ -22824,7 +22824,7 @@
         <v>1.14</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT110" t="n">
         <v>1.2</v>
@@ -23027,10 +23027,10 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU111" t="n">
         <v>1.33</v>
@@ -23233,7 +23233,7 @@
         <v>1.56</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU112" t="n">
         <v>1.11</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT114" t="n">
         <v>1</v>
@@ -23839,10 +23839,10 @@
         <v>0.57</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.1</v>
@@ -24245,7 +24245,7 @@
         <v>1.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT117" t="n">
         <v>1.11</v>
@@ -24448,10 +24448,10 @@
         <v>2.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU118" t="n">
         <v>1.16</v>
@@ -24854,10 +24854,10 @@
         <v>2.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT120" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU120" t="n">
         <v>1.53</v>
@@ -25060,7 +25060,7 @@
         <v>1.64</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU121" t="n">
         <v>1.62</v>
@@ -25260,7 +25260,7 @@
         <v>0.86</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT122" t="n">
         <v>1.33</v>
@@ -25463,10 +25463,10 @@
         <v>0.83</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU123" t="n">
         <v>1.01</v>
@@ -25869,10 +25869,10 @@
         <v>2.4</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU125" t="n">
         <v>1</v>
@@ -26072,7 +26072,7 @@
         <v>1.13</v>
       </c>
       <c r="AS126" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT126" t="n">
         <v>1.2</v>
@@ -26275,7 +26275,7 @@
         <v>1.33</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT127" t="n">
         <v>1.25</v>
@@ -26478,7 +26478,7 @@
         <v>0.63</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT128" t="n">
         <v>0.5600000000000001</v>
@@ -26884,7 +26884,7 @@
         <v>1.14</v>
       </c>
       <c r="AS130" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT130" t="n">
         <v>1.11</v>
@@ -27090,7 +27090,7 @@
         <v>2.38</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU131" t="n">
         <v>1.91</v>
@@ -27290,10 +27290,10 @@
         <v>0.88</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU132" t="n">
         <v>1.17</v>
@@ -27496,7 +27496,7 @@
         <v>1.56</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU133" t="n">
         <v>1.21</v>
@@ -27899,7 +27899,7 @@
         <v>1.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT135" t="n">
         <v>1.25</v>
@@ -28305,10 +28305,10 @@
         <v>0.88</v>
       </c>
       <c r="AS137" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU137" t="n">
         <v>1.08</v>
@@ -28711,10 +28711,10 @@
         <v>2.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU139" t="n">
         <v>1.19</v>
@@ -29323,7 +29323,7 @@
         <v>2.4</v>
       </c>
       <c r="AT142" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU142" t="n">
         <v>1.53</v>
@@ -29375,6 +29375,1630 @@
       </c>
       <c r="BK142" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3543335</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45017.25</v>
+      </c>
+      <c r="F143" t="n">
+        <v>19</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Minai</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['85', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" t="n">
+        <v>4</v>
+      </c>
+      <c r="S143" t="n">
+        <v>6</v>
+      </c>
+      <c r="T143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3543337</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45017.29166666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>19</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Metal Kharkiv</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Kolos Kovalivka</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>4</v>
+      </c>
+      <c r="R144" t="n">
+        <v>8</v>
+      </c>
+      <c r="S144" t="n">
+        <v>12</v>
+      </c>
+      <c r="T144" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3543334</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45017.33333333334</v>
+      </c>
+      <c r="F145" t="n">
+        <v>19</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Veres Rivne</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Hirnyk</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>2</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['51', '83']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>8</v>
+      </c>
+      <c r="R145" t="n">
+        <v>4</v>
+      </c>
+      <c r="S145" t="n">
+        <v>12</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3543336</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45017.375</v>
+      </c>
+      <c r="F146" t="n">
+        <v>19</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Oleksandria</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Vorskla</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>2</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['25', '40', '78']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>6</v>
+      </c>
+      <c r="R146" t="n">
+        <v>6</v>
+      </c>
+      <c r="S146" t="n">
+        <v>12</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3543342</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45018.29166666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>19</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Lviv</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Dynamo Kyiv</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['52', '87']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="n">
+        <v>9</v>
+      </c>
+      <c r="S147" t="n">
+        <v>10</v>
+      </c>
+      <c r="T147" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V147" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>3543340</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45018.33333333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>19</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Metalist 1925 Kharkiv</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Dnipro-1</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>3</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['71', '78', '81']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>2</v>
+      </c>
+      <c r="R148" t="n">
+        <v>8</v>
+      </c>
+      <c r="S148" t="n">
+        <v>10</v>
+      </c>
+      <c r="T148" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3543341</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45018.375</v>
+      </c>
+      <c r="F149" t="n">
+        <v>19</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Zorya</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Rukh Vynnyky</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>3</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['18', '64', '86']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>5</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1</v>
+      </c>
+      <c r="S149" t="n">
+        <v>6</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V149" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X149" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3543343</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45018.375</v>
+      </c>
+      <c r="F150" t="n">
+        <v>19</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Chornomorets</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Shakhtar Donetsk</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>2</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2</v>
+      </c>
+      <c r="K150" t="n">
+        <v>4</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>4</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['8', '41']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['1', '19']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>5</v>
+      </c>
+      <c r="R150" t="n">
+        <v>4</v>
+      </c>
+      <c r="S150" t="n">
+        <v>9</v>
+      </c>
+      <c r="T150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V150" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
@@ -11518,7 +11518,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>3543247</v>
+        <v>3543248</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -11538,182 +11538,182 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Vorskla</t>
+          <t>Dnipro-1</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rukh Vynnyky</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45+1', '68']</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>['28']</t>
+          <t>['55', '66']</t>
         </is>
       </c>
       <c r="Q55" t="n">
+        <v>7</v>
+      </c>
+      <c r="R55" t="n">
         <v>4</v>
       </c>
-      <c r="R55" t="n">
-        <v>6</v>
-      </c>
       <c r="S55" t="n">
+        <v>11</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V55" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY55" t="n">
         <v>10</v>
       </c>
-      <c r="T55" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U55" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="V55" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X55" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK55" t="n">
+      <c r="AZ55" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD55" t="n">
         <v>2.1</v>
       </c>
-      <c r="AL55" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BD55" t="n">
-        <v>1.8</v>
-      </c>
       <c r="BE55" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="BF55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI55" t="n">
         <v>5</v>
       </c>
       <c r="BJ55" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BK55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -11721,7 +11721,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>3543248</v>
+        <v>3543247</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -11741,182 +11741,182 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Dnipro-1</t>
+          <t>Vorskla</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Rukh Vynnyky</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
         <v>4</v>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>['45+1', '68']</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>['55', '66']</t>
-        </is>
-      </c>
-      <c r="Q56" t="n">
-        <v>7</v>
-      </c>
       <c r="R56" t="n">
+        <v>6</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V56" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG56" t="n">
         <v>4</v>
       </c>
-      <c r="S56" t="n">
-        <v>11</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U56" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V56" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X56" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="BA56" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB56" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC56" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD56" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BE56" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BF56" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG56" t="n">
-        <v>5</v>
-      </c>
       <c r="BH56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI56" t="n">
         <v>5</v>
       </c>
       <c r="BJ56" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BK56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -12533,7 +12533,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>3543258</v>
+        <v>3543257</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -12553,182 +12553,182 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv</t>
+          <t>Veres Rivne</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Vorskla</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>['44']</t>
+          <t>['73']</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R60" t="n">
         <v>3</v>
       </c>
       <c r="S60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T60" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>6.45</v>
+        <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="AB60" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="AD60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF60" t="n">
         <v>4</v>
       </c>
-      <c r="AE60" t="n">
+      <c r="BG60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI60" t="n">
         <v>6</v>
       </c>
-      <c r="AF60" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="BE60" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="BF60" t="n">
+      <c r="BJ60" t="n">
         <v>6</v>
       </c>
-      <c r="BG60" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH60" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>12</v>
-      </c>
       <c r="BK60" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -12736,7 +12736,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>3543256</v>
+        <v>3543258</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -12756,98 +12756,98 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Metal Kharkiv</t>
+          <t>Dynamo Kyiv</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Dnipro-1</t>
+          <t>Vorskla</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>['85']</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R61" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S61" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T61" t="n">
-        <v>5.65</v>
+        <v>1.96</v>
       </c>
       <c r="U61" t="n">
         <v>2.5</v>
       </c>
       <c r="V61" t="n">
-        <v>2.05</v>
+        <v>6.45</v>
       </c>
       <c r="W61" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X61" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y61" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AA61" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB61" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AC61" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AE61" t="n">
-        <v>1.44</v>
+        <v>6</v>
       </c>
       <c r="AF61" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG61" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH61" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AI61" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AJ61" t="n">
         <v>1.65</v>
@@ -12856,82 +12856,82 @@
         <v>2.1</v>
       </c>
       <c r="AL61" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="AM61" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="AN61" t="n">
-        <v>2.6</v>
+        <v>1.09</v>
       </c>
       <c r="AO61" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.13</v>
+        <v>2.9</v>
       </c>
       <c r="AQ61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV61" t="n">
         <v>1.33</v>
       </c>
-      <c r="AR61" t="n">
+      <c r="AW61" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG61" t="n">
         <v>3</v>
       </c>
-      <c r="AS61" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BC61" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="BD61" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="BE61" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="BF61" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG61" t="n">
-        <v>4</v>
-      </c>
       <c r="BH61" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BI61" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BJ61" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK61" t="n">
         <v>3</v>
-      </c>
-      <c r="BK61" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -12939,7 +12939,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>3543257</v>
+        <v>3543256</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -12959,12 +12959,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Veres Rivne</t>
+          <t>Metal Kharkiv</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Dnipro-1</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -12992,149 +12992,149 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
         <v>7</v>
       </c>
-      <c r="R62" t="n">
+      <c r="S62" t="n">
+        <v>7</v>
+      </c>
+      <c r="T62" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X62" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR62" t="n">
         <v>3</v>
       </c>
-      <c r="S62" t="n">
-        <v>10</v>
-      </c>
-      <c r="T62" t="n">
-        <v>0</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AS62" t="n">
-        <v>0.22</v>
+        <v>0.78</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AU62" t="n">
-        <v>1.36</v>
+        <v>1.03</v>
       </c>
       <c r="AV62" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="AW62" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ62" t="n">
         <v>3</v>
       </c>
-      <c r="AX62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH62" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI62" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ62" t="n">
-        <v>6</v>
-      </c>
       <c r="BK62" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -15375,7 +15375,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>3543273</v>
+        <v>3543270</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -15395,182 +15395,182 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Oleksandria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Metal Kharkiv</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
         <v>5</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>['72', '89', '90+3']</t>
+          <t>['8', '61', '68', '73']</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>['58', '75']</t>
+          <t>['53']</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S74" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T74" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="U74" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="V74" t="n">
         <v>4.42</v>
       </c>
       <c r="W74" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="X74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD74" t="n">
         <v>3</v>
       </c>
-      <c r="Y74" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AE74" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="AF74" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AG74" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AI74" t="n">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="AJ74" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AK74" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="AL74" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AM74" t="n">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="AN74" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AO74" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR74" t="n">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
-        <v>1.58</v>
+        <v>1.12</v>
       </c>
       <c r="AV74" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="AW74" t="n">
-        <v>2.61</v>
+        <v>2.11</v>
       </c>
       <c r="AX74" t="n">
-        <v>1.37</v>
+        <v>1.66</v>
       </c>
       <c r="AY74" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AZ74" t="n">
-        <v>3.82</v>
+        <v>2.69</v>
       </c>
       <c r="BA74" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="BB74" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="BC74" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BD74" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="BE74" t="n">
-        <v>2.43</v>
+        <v>3.5</v>
       </c>
       <c r="BF74" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BG74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH74" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BI74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ74" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BK74" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -15578,7 +15578,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>3543270</v>
+        <v>3543273</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -15598,182 +15598,182 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Oleksandria</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Metal Kharkiv</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
         <v>5</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>['8', '61', '68', '73']</t>
+          <t>['72', '89', '90+3']</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>['53']</t>
+          <t>['58', '75']</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S75" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T75" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="U75" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="V75" t="n">
         <v>4.42</v>
       </c>
       <c r="W75" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="X75" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y75" t="n">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AA75" t="n">
-        <v>7.9</v>
+        <v>6.3</v>
       </c>
       <c r="AB75" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AC75" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="AD75" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AE75" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="AF75" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AG75" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AH75" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AI75" t="n">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="AJ75" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AK75" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="AL75" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="AM75" t="n">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="AN75" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AO75" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR75" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AU75" t="n">
-        <v>1.12</v>
+        <v>1.58</v>
       </c>
       <c r="AV75" t="n">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="AW75" t="n">
-        <v>2.11</v>
+        <v>2.61</v>
       </c>
       <c r="AX75" t="n">
-        <v>1.66</v>
+        <v>1.37</v>
       </c>
       <c r="AY75" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ75" t="n">
-        <v>2.69</v>
+        <v>3.82</v>
       </c>
       <c r="BA75" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB75" t="n">
         <v>1.29</v>
       </c>
-      <c r="BB75" t="n">
-        <v>1.53</v>
-      </c>
       <c r="BC75" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BD75" t="n">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="BE75" t="n">
-        <v>3.5</v>
+        <v>2.43</v>
       </c>
       <c r="BF75" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BG75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH75" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ75" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BK75" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -16390,7 +16390,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>3543269</v>
+        <v>3543274</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -16410,149 +16410,149 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Rukh Vynnyky</t>
+          <t>Chornomorets</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Hirnyk</t>
+          <t>Dynamo Kyiv</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N79" t="n">
         <v>3</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['53', '57']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>['25', '48', '90+2']</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="R79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T79" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V79" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG79" t="n">
         <v>10</v>
       </c>
-      <c r="S79" t="n">
-        <v>16</v>
-      </c>
-      <c r="T79" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U79" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="V79" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="W79" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X79" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG79" t="n">
+      <c r="AH79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AY79" t="n">
         <v>11</v>
       </c>
-      <c r="AH79" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AZ79" t="n">
-        <v>1.89</v>
+        <v>1.17</v>
       </c>
       <c r="BA79" t="n">
         <v>1.22</v>
@@ -16570,22 +16570,22 @@
         <v>3</v>
       </c>
       <c r="BF79" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BG79" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BH79" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BI79" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BJ79" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BK79" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
@@ -16593,7 +16593,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>3543274</v>
+        <v>3543269</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -16613,149 +16613,149 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Chornomorets</t>
+          <t>Rukh Vynnyky</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv</t>
+          <t>Hirnyk</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
         <v>3</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['53', '57']</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>['25', '48', '90+2']</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R80" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S80" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="T80" t="n">
-        <v>6.74</v>
+        <v>2.92</v>
       </c>
       <c r="U80" t="n">
-        <v>2.42</v>
+        <v>2.17</v>
       </c>
       <c r="V80" t="n">
-        <v>1.98</v>
+        <v>3.86</v>
       </c>
       <c r="W80" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="X80" t="n">
-        <v>3.13</v>
+        <v>2.75</v>
       </c>
       <c r="Y80" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AA80" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT80" t="n">
         <v>1.1</v>
       </c>
-      <c r="AC80" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AU80" t="n">
-        <v>0.88</v>
+        <v>1.27</v>
       </c>
       <c r="AV80" t="n">
-        <v>1.99</v>
+        <v>0.96</v>
       </c>
       <c r="AW80" t="n">
-        <v>2.87</v>
+        <v>2.23</v>
       </c>
       <c r="AX80" t="n">
-        <v>7.8</v>
+        <v>2.5</v>
       </c>
       <c r="AY80" t="n">
-        <v>11</v>
+        <v>6.9</v>
       </c>
       <c r="AZ80" t="n">
-        <v>1.17</v>
+        <v>1.89</v>
       </c>
       <c r="BA80" t="n">
         <v>1.22</v>
@@ -16773,22 +16773,22 @@
         <v>3</v>
       </c>
       <c r="BF80" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG80" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH80" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI80" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ80" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK80" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
@@ -17202,7 +17202,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>3543280</v>
+        <v>3543278</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -17222,182 +17222,182 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Hirnyk</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dnipro-1</t>
+          <t>Vorskla</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
         <v>3</v>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="n">
+      <c r="S83" t="n">
+        <v>8</v>
+      </c>
+      <c r="T83" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y83" t="n">
         <v>3</v>
       </c>
-      <c r="N83" t="n">
-        <v>4</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>['31']</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>['5', '36', '77']</t>
-        </is>
-      </c>
-      <c r="Q83" t="n">
-        <v>1</v>
-      </c>
-      <c r="R83" t="n">
-        <v>6</v>
-      </c>
-      <c r="S83" t="n">
-        <v>7</v>
-      </c>
-      <c r="T83" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="U83" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V83" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="W83" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X83" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>2.85</v>
-      </c>
       <c r="Z83" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AA83" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC83" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="AD83" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="AE83" t="n">
-        <v>1.63</v>
+        <v>2.12</v>
       </c>
       <c r="AF83" t="n">
         <v>1.05</v>
       </c>
       <c r="AG83" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH83" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AI83" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AJ83" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="AK83" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AL83" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="AM83" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AN83" t="n">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="AO83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ83" t="n">
         <v>1.25</v>
       </c>
-      <c r="AP83" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AQ83" t="n">
-        <v>2.33</v>
-      </c>
       <c r="AR83" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="AS83" t="n">
         <v>1.56</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="AU83" t="n">
-        <v>0.91</v>
+        <v>1.03</v>
       </c>
       <c r="AV83" t="n">
-        <v>1.83</v>
+        <v>1.15</v>
       </c>
       <c r="AW83" t="n">
-        <v>2.74</v>
+        <v>2.18</v>
       </c>
       <c r="AX83" t="n">
-        <v>3.62</v>
+        <v>2.15</v>
       </c>
       <c r="AY83" t="n">
         <v>7</v>
       </c>
       <c r="AZ83" t="n">
-        <v>1.51</v>
+        <v>2.15</v>
       </c>
       <c r="BA83" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="BB83" t="n">
-        <v>1.74</v>
+        <v>1.26</v>
       </c>
       <c r="BC83" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="BD83" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="BE83" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="BF83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG83" t="n">
         <v>3</v>
       </c>
-      <c r="BG83" t="n">
+      <c r="BH83" t="n">
         <v>4</v>
       </c>
-      <c r="BH83" t="n">
-        <v>2</v>
-      </c>
       <c r="BI83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ83" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BK83" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -17405,7 +17405,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>3543278</v>
+        <v>3543280</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -17425,182 +17425,182 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hirnyk</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Vorskla</t>
+          <t>Dnipro-1</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['49']</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['5', '36', '77']</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R84" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T84" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="U84" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V84" t="n">
-        <v>2.43</v>
+        <v>2.23</v>
       </c>
       <c r="W84" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X84" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Y84" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AA84" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB84" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC84" t="n">
-        <v>3.15</v>
+        <v>4.6</v>
       </c>
       <c r="AD84" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="AE84" t="n">
-        <v>2.12</v>
+        <v>1.63</v>
       </c>
       <c r="AF84" t="n">
         <v>1.05</v>
       </c>
       <c r="AG84" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH84" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AI84" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AJ84" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="AK84" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM84" t="n">
         <v>1.78</v>
       </c>
-      <c r="AL84" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AN84" t="n">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="AO84" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR84" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="AS84" t="n">
         <v>1.56</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="AU84" t="n">
-        <v>1.03</v>
+        <v>0.91</v>
       </c>
       <c r="AV84" t="n">
-        <v>1.15</v>
+        <v>1.83</v>
       </c>
       <c r="AW84" t="n">
-        <v>2.18</v>
+        <v>2.74</v>
       </c>
       <c r="AX84" t="n">
-        <v>2.15</v>
+        <v>3.62</v>
       </c>
       <c r="AY84" t="n">
         <v>7</v>
       </c>
       <c r="AZ84" t="n">
-        <v>2.15</v>
+        <v>1.51</v>
       </c>
       <c r="BA84" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="BB84" t="n">
-        <v>1.26</v>
+        <v>1.74</v>
       </c>
       <c r="BC84" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="BD84" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="BE84" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="BF84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK84" t="n">
         <v>8</v>
-      </c>
-      <c r="BG84" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH84" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI84" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ84" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK84" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -25322,7 +25322,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>3543313</v>
+        <v>3543315</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -25342,59 +25342,59 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Metal Kharkiv</t>
+          <t>Vorskla</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Rukh Vynnyky</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N123" t="n">
+        <v>5</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['5', '16']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['57', '90+1', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>6</v>
+      </c>
+      <c r="R123" t="n">
         <v>3</v>
       </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>['49']</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>['17', '76']</t>
-        </is>
-      </c>
-      <c r="Q123" t="n">
-        <v>5</v>
-      </c>
-      <c r="R123" t="n">
-        <v>8</v>
-      </c>
       <c r="S123" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T123" t="n">
-        <v>2.92</v>
+        <v>3.62</v>
       </c>
       <c r="U123" t="n">
-        <v>2.23</v>
+        <v>2.21</v>
       </c>
       <c r="V123" t="n">
-        <v>3.62</v>
+        <v>2.97</v>
       </c>
       <c r="W123" t="n">
         <v>1.38</v>
@@ -25403,121 +25403,121 @@
         <v>2.9</v>
       </c>
       <c r="Y123" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z123" t="n">
         <v>1.41</v>
       </c>
       <c r="AA123" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB123" t="n">
         <v>1.09</v>
       </c>
       <c r="AC123" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="AD123" t="n">
-        <v>4.79</v>
+        <v>3.25</v>
       </c>
       <c r="AE123" t="n">
-        <v>1.81</v>
+        <v>2.25</v>
       </c>
       <c r="AF123" t="n">
         <v>1.04</v>
       </c>
       <c r="AG123" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH123" t="n">
         <v>1.27</v>
       </c>
       <c r="AI123" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AJ123" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="AK123" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AL123" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AM123" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AN123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP123" t="n">
         <v>1.39</v>
       </c>
-      <c r="AO123" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP123" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AQ123" t="n">
-        <v>0.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR123" t="n">
-        <v>0.83</v>
+        <v>1.63</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.78</v>
+        <v>1.33</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.89</v>
+        <v>1.9</v>
       </c>
       <c r="AU123" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="AV123" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AW123" t="n">
-        <v>2.23</v>
+        <v>2.74</v>
       </c>
       <c r="AX123" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="AY123" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AZ123" t="n">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="BA123" t="n">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="BB123" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="BC123" t="n">
-        <v>2.03</v>
+        <v>1.55</v>
       </c>
       <c r="BD123" t="n">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="BE123" t="n">
-        <v>3.74</v>
+        <v>2.51</v>
       </c>
       <c r="BF123" t="n">
         <v>5</v>
       </c>
       <c r="BG123" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI123" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ123" t="n">
         <v>6</v>
       </c>
-      <c r="BJ123" t="n">
-        <v>9</v>
-      </c>
       <c r="BK123" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
@@ -25525,7 +25525,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>3543315</v>
+        <v>3543313</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -25545,59 +25545,59 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Vorskla</t>
+          <t>Metal Kharkiv</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Rukh Vynnyky</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M124" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" t="n">
         <v>3</v>
       </c>
-      <c r="N124" t="n">
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['17', '76']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
         <v>5</v>
       </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>['5', '16']</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>['57', '90+1', '90+4']</t>
-        </is>
-      </c>
-      <c r="Q124" t="n">
-        <v>6</v>
-      </c>
       <c r="R124" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S124" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T124" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V124" t="n">
         <v>3.62</v>
-      </c>
-      <c r="U124" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="V124" t="n">
-        <v>2.97</v>
       </c>
       <c r="W124" t="n">
         <v>1.38</v>
@@ -25606,121 +25606,121 @@
         <v>2.9</v>
       </c>
       <c r="Y124" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Z124" t="n">
         <v>1.41</v>
       </c>
       <c r="AA124" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB124" t="n">
         <v>1.09</v>
       </c>
       <c r="AC124" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AD124" t="n">
-        <v>3.25</v>
+        <v>4.79</v>
       </c>
       <c r="AE124" t="n">
-        <v>2.25</v>
+        <v>1.81</v>
       </c>
       <c r="AF124" t="n">
         <v>1.04</v>
       </c>
       <c r="AG124" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH124" t="n">
         <v>1.27</v>
       </c>
       <c r="AI124" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AJ124" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="AK124" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="AL124" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AM124" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="AN124" t="n">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="AO124" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="AQ124" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB124" t="n">
         <v>1.57</v>
       </c>
-      <c r="AR124" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AS124" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT124" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AU124" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AV124" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AW124" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AX124" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AY124" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AZ124" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BA124" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="BB124" t="n">
-        <v>1.3</v>
-      </c>
       <c r="BC124" t="n">
-        <v>1.55</v>
+        <v>2.03</v>
       </c>
       <c r="BD124" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="BE124" t="n">
-        <v>2.51</v>
+        <v>3.74</v>
       </c>
       <c r="BF124" t="n">
         <v>5</v>
       </c>
       <c r="BG124" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI124" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ124" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK124" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
@@ -26337,7 +26337,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>3543323</v>
+        <v>3543322</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -26357,12 +26357,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Lviv</t>
+          <t>Metal Kharkiv</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -26375,131 +26375,131 @@
         <v>1</v>
       </c>
       <c r="L128" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="n">
         <v>3</v>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="n">
-        <v>4</v>
-      </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>['34', '54', '70']</t>
+          <t>['28', '77']</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>['87']</t>
+          <t>['64']</t>
         </is>
       </c>
       <c r="Q128" t="n">
+        <v>10</v>
+      </c>
+      <c r="R128" t="n">
         <v>7</v>
       </c>
-      <c r="R128" t="n">
-        <v>5</v>
-      </c>
       <c r="S128" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="T128" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V128" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X128" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL128" t="n">
         <v>1.95</v>
       </c>
-      <c r="U128" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V128" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="W128" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X128" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z128" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AA128" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB128" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC128" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH128" t="n">
+      <c r="AM128" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR128" t="n">
         <v>1.22</v>
       </c>
-      <c r="AI128" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL128" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AM128" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN128" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AO128" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP128" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AQ128" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AR128" t="n">
-        <v>0.63</v>
-      </c>
       <c r="AS128" t="n">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AU128" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="AV128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AW128" t="n">
-        <v>2.52</v>
+        <v>2.01</v>
       </c>
       <c r="AX128" t="n">
-        <v>1.21</v>
+        <v>1.87</v>
       </c>
       <c r="AY128" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AZ128" t="n">
-        <v>6.9</v>
+        <v>2.6</v>
       </c>
       <c r="BA128" t="n">
         <v>1.3</v>
@@ -26508,7 +26508,7 @@
         <v>1.58</v>
       </c>
       <c r="BC128" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BD128" t="n">
         <v>2.7</v>
@@ -26523,16 +26523,16 @@
         <v>5</v>
       </c>
       <c r="BH128" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI128" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ128" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BK128" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
@@ -26540,7 +26540,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>3543322</v>
+        <v>3543323</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -26560,12 +26560,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Metal Kharkiv</t>
+          <t>Lviv</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -26578,131 +26578,131 @@
         <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
       <c r="N129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>['28', '77']</t>
+          <t>['34', '54', '70']</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>['64']</t>
+          <t>['87']</t>
         </is>
       </c>
       <c r="Q129" t="n">
+        <v>7</v>
+      </c>
+      <c r="R129" t="n">
+        <v>5</v>
+      </c>
+      <c r="S129" t="n">
+        <v>12</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V129" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X129" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY129" t="n">
         <v>10</v>
       </c>
-      <c r="R129" t="n">
-        <v>7</v>
-      </c>
-      <c r="S129" t="n">
-        <v>17</v>
-      </c>
-      <c r="T129" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="U129" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V129" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="W129" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X129" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y129" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Z129" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AA129" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AB129" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC129" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AD129" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE129" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AF129" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG129" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH129" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI129" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AJ129" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK129" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AL129" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM129" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AN129" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AO129" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP129" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ129" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AR129" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AS129" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT129" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AU129" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AV129" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AW129" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AX129" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AY129" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AZ129" t="n">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="BA129" t="n">
         <v>1.3</v>
@@ -26711,7 +26711,7 @@
         <v>1.58</v>
       </c>
       <c r="BC129" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BD129" t="n">
         <v>2.7</v>
@@ -26726,16 +26726,16 @@
         <v>5</v>
       </c>
       <c r="BH129" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI129" t="n">
         <v>5</v>
       </c>
-      <c r="BI129" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ129" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK129" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
@@ -26946,7 +26946,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>3543324</v>
+        <v>3543321</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -26966,12 +26966,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Dnipro-1</t>
+          <t>Veres Rivne</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv</t>
+          <t>Vorskla</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -26984,164 +26984,164 @@
         <v>1</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['48', '60']</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>['41']</t>
+          <t>['25', '85']</t>
         </is>
       </c>
       <c r="Q131" t="n">
+        <v>5</v>
+      </c>
+      <c r="R131" t="n">
         <v>6</v>
-      </c>
-      <c r="R131" t="n">
-        <v>5</v>
       </c>
       <c r="S131" t="n">
         <v>11</v>
       </c>
       <c r="T131" t="n">
-        <v>3.46</v>
+        <v>0</v>
       </c>
       <c r="U131" t="n">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="V131" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="W131" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X131" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="Y131" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="Z131" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AA131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF131" t="n">
         <v>6</v>
       </c>
-      <c r="AB131" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC131" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AD131" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AE131" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AF131" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG131" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH131" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI131" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AJ131" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AK131" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AL131" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AM131" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AN131" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO131" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AP131" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AQ131" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AR131" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS131" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AT131" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU131" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AV131" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AW131" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX131" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AY131" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AZ131" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BA131" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BB131" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BC131" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="BD131" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BE131" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BF131" t="n">
+      <c r="BG131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI131" t="n">
         <v>5</v>
       </c>
-      <c r="BG131" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH131" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI131" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ131" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK131" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
@@ -27149,7 +27149,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>3543321</v>
+        <v>3543324</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -27169,12 +27169,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Veres Rivne</t>
+          <t>Dnipro-1</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Vorskla</t>
+          <t>Dynamo Kyiv</t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -27187,164 +27187,164 @@
         <v>1</v>
       </c>
       <c r="L132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>['48', '60']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>['25', '85']</t>
+          <t>['41']</t>
         </is>
       </c>
       <c r="Q132" t="n">
+        <v>6</v>
+      </c>
+      <c r="R132" t="n">
         <v>5</v>
-      </c>
-      <c r="R132" t="n">
-        <v>6</v>
       </c>
       <c r="S132" t="n">
         <v>11</v>
       </c>
       <c r="T132" t="n">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="U132" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="V132" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="W132" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X132" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Y132" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Z132" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AA132" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB132" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AC132" t="n">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="AD132" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AE132" t="n">
-        <v>2.33</v>
+        <v>2.54</v>
       </c>
       <c r="AF132" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG132" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH132" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI132" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ132" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="AK132" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AL132" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AM132" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AN132" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AO132" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AP132" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.17</v>
+        <v>2.71</v>
       </c>
       <c r="AR132" t="n">
-        <v>0.88</v>
+        <v>2</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.22</v>
+        <v>2.38</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="AU132" t="n">
-        <v>1.17</v>
+        <v>1.91</v>
       </c>
       <c r="AV132" t="n">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AW132" t="n">
-        <v>2.29</v>
+        <v>3.5</v>
       </c>
       <c r="AX132" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AY132" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AZ132" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BA132" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BB132" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="BC132" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="BD132" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BE132" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BF132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ132" t="n">
         <v>6</v>
       </c>
-      <c r="BG132" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH132" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI132" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ132" t="n">
-        <v>8</v>
-      </c>
       <c r="BK132" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
@@ -28164,7 +28164,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>3543326</v>
+        <v>3543332</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -28184,182 +28184,182 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Lviv</t>
+          <t>Dynamo Kyiv</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Hirnyk</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N137" t="n">
+        <v>1</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
         <v>4</v>
       </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>['74', '87']</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>['19', '79']</t>
-        </is>
-      </c>
-      <c r="Q137" t="n">
-        <v>1</v>
-      </c>
       <c r="R137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S137" t="n">
+        <v>4</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V137" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X137" t="n">
         <v>3</v>
       </c>
-      <c r="T137" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="U137" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V137" t="n">
+      <c r="Y137" t="n">
         <v>2.6</v>
       </c>
-      <c r="W137" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X137" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Y137" t="n">
-        <v>3.54</v>
-      </c>
       <c r="Z137" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AA137" t="n">
-        <v>9.4</v>
+        <v>6.75</v>
       </c>
       <c r="AB137" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AC137" t="n">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="AD137" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="AE137" t="n">
-        <v>2.17</v>
+        <v>3.95</v>
       </c>
       <c r="AF137" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AG137" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AH137" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="AI137" t="n">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="AJ137" t="n">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="AK137" t="n">
-        <v>1.48</v>
+        <v>2.02</v>
       </c>
       <c r="AL137" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="AM137" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="AN137" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="AO137" t="n">
         <v>1.28</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.22</v>
+        <v>1.9</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AR137" t="n">
-        <v>0.88</v>
+        <v>1.78</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.89</v>
+        <v>1.64</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="AU137" t="n">
-        <v>1.08</v>
+        <v>1.59</v>
       </c>
       <c r="AV137" t="n">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AW137" t="n">
-        <v>2.29</v>
+        <v>3.06</v>
       </c>
       <c r="AX137" t="n">
-        <v>3.6</v>
+        <v>1.39</v>
       </c>
       <c r="AY137" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="AZ137" t="n">
-        <v>1.42</v>
+        <v>3.74</v>
       </c>
       <c r="BA137" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="BB137" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="BC137" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="BD137" t="n">
-        <v>2.88</v>
+        <v>2.43</v>
       </c>
       <c r="BE137" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="BF137" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH137" t="n">
         <v>3</v>
       </c>
-      <c r="BH137" t="n">
+      <c r="BI137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK137" t="n">
         <v>8</v>
-      </c>
-      <c r="BI137" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ137" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK137" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -28367,7 +28367,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>3543332</v>
+        <v>3543326</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -28387,182 +28387,182 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv</t>
+          <t>Lviv</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Hirnyk</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N138" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['74', '87']</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>['83']</t>
+          <t>['19', '79']</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T138" t="n">
-        <v>2.35</v>
+        <v>4.75</v>
       </c>
       <c r="U138" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="V138" t="n">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="W138" t="n">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="X138" t="n">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="Y138" t="n">
-        <v>2.6</v>
+        <v>3.54</v>
       </c>
       <c r="Z138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH138" t="n">
         <v>1.45</v>
       </c>
-      <c r="AA138" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AB138" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AF138" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG138" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH138" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AI138" t="n">
-        <v>3.7</v>
+        <v>2.55</v>
       </c>
       <c r="AJ138" t="n">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="AK138" t="n">
-        <v>2.02</v>
+        <v>1.48</v>
       </c>
       <c r="AL138" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="AM138" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="AN138" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="AO138" t="n">
         <v>1.28</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.9</v>
+        <v>1.22</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AR138" t="n">
-        <v>1.78</v>
+        <v>0.88</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.64</v>
+        <v>0.89</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="AU138" t="n">
-        <v>1.59</v>
+        <v>1.08</v>
       </c>
       <c r="AV138" t="n">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="AW138" t="n">
-        <v>3.06</v>
+        <v>2.29</v>
       </c>
       <c r="AX138" t="n">
-        <v>1.39</v>
+        <v>3.6</v>
       </c>
       <c r="AY138" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="AZ138" t="n">
-        <v>3.74</v>
+        <v>1.42</v>
       </c>
       <c r="BA138" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="BB138" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="BC138" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="BD138" t="n">
-        <v>2.43</v>
+        <v>2.88</v>
       </c>
       <c r="BE138" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="BF138" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK138" t="n">
         <v>4</v>
-      </c>
-      <c r="BG138" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH138" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI138" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ138" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK138" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="139">

--- a/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK150"/>
+  <dimension ref="A1:BK155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT2" t="n">
         <v>1.11</v>
@@ -1106,7 +1106,7 @@
         <v>0.7</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>3</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0.89</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT12" t="n">
         <v>1.1</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT13" t="n">
         <v>2.3</v>
@@ -3339,7 +3339,7 @@
         <v>0.78</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2.38</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0.7</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>0.46</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5600000000000001</v>
@@ -5166,7 +5166,7 @@
         <v>2.1</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.48</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU24" t="n">
         <v>1.34</v>
@@ -5569,10 +5569,10 @@
         <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU25" t="n">
         <v>0.9</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT26" t="n">
         <v>1.33</v>
@@ -6181,7 +6181,7 @@
         <v>1.56</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>0.54</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT29" t="n">
         <v>0.5600000000000001</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT30" t="n">
         <v>1.25</v>
@@ -6790,7 +6790,7 @@
         <v>1.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU31" t="n">
         <v>1.2</v>
@@ -8820,7 +8820,7 @@
         <v>0.22</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.22</v>
@@ -9023,7 +9023,7 @@
         <v>1.56</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
         <v>0.72</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
         <v>1.33</v>
@@ -9429,7 +9429,7 @@
         <v>2.38</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU44" t="n">
         <v>1.72</v>
@@ -9629,10 +9629,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU45" t="n">
         <v>0.9</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT46" t="n">
         <v>0.89</v>
@@ -10038,7 +10038,7 @@
         <v>0.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU47" t="n">
         <v>0.96</v>
@@ -10097,7 +10097,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>3543237</v>
+        <v>3543240</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -10117,182 +10117,182 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Metalist 1925 Kharkiv</t>
+          <t>Metal Kharkiv</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Lviv</t>
+          <t>Vorskla</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
         <v>3</v>
       </c>
-      <c r="L48" t="n">
-        <v>2</v>
-      </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>['5', '22']</t>
+          <t>['44', '49', '56']</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>['8', '65']</t>
+          <t>['54', '80']</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S48" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T48" t="n">
-        <v>2.82</v>
+        <v>4.2</v>
       </c>
       <c r="U48" t="n">
-        <v>2.08</v>
+        <v>2.35</v>
       </c>
       <c r="V48" t="n">
-        <v>4.42</v>
+        <v>2.5</v>
       </c>
       <c r="W48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z48" t="n">
         <v>1.48</v>
       </c>
-      <c r="X48" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.31</v>
-      </c>
       <c r="AA48" t="n">
-        <v>8.4</v>
+        <v>5.9</v>
       </c>
       <c r="AB48" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU48" t="n">
         <v>1.05</v>
       </c>
-      <c r="AC48" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AJ48" t="n">
+      <c r="AV48" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD48" t="n">
         <v>2.1</v>
       </c>
-      <c r="AK48" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD48" t="n">
-        <v>2.6</v>
-      </c>
       <c r="BE48" t="n">
-        <v>3.74</v>
+        <v>2.75</v>
       </c>
       <c r="BF48" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG48" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH48" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BI48" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ48" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK48" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -10300,7 +10300,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>3543240</v>
+        <v>3543237</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -10320,182 +10320,182 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Metal Kharkiv</t>
+          <t>Metalist 1925 Kharkiv</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Vorskla</t>
+          <t>Lviv</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>['44', '49', '56']</t>
+          <t>['5', '22']</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>['54', '80']</t>
+          <t>['8', '65']</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R49" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="T49" t="n">
-        <v>4.2</v>
+        <v>2.82</v>
       </c>
       <c r="U49" t="n">
-        <v>2.35</v>
+        <v>2.08</v>
       </c>
       <c r="V49" t="n">
-        <v>2.5</v>
+        <v>4.42</v>
       </c>
       <c r="W49" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR49" t="n">
         <v>1.33</v>
       </c>
-      <c r="X49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>1</v>
-      </c>
       <c r="AS49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AV49" t="n">
         <v>0.78</v>
       </c>
-      <c r="AT49" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>1.15</v>
-      </c>
       <c r="AW49" t="n">
-        <v>2.2</v>
+        <v>1.38</v>
       </c>
       <c r="AX49" t="n">
-        <v>3.38</v>
+        <v>2.15</v>
       </c>
       <c r="AY49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ49" t="n">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="BA49" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BB49" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="BC49" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="BD49" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="BE49" t="n">
-        <v>2.75</v>
+        <v>3.74</v>
       </c>
       <c r="BF49" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BG49" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BH49" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BI49" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BJ49" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BK49" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT51" t="n">
         <v>2.25</v>
@@ -11053,7 +11053,7 @@
         <v>0.89</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU52" t="n">
         <v>0.99</v>
@@ -11112,7 +11112,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>3543249</v>
+        <v>3543245</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -11132,182 +11132,182 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Chornomorets</t>
+          <t>Oleksandria</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Hirnyk</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['7', '61']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
         <v>3</v>
       </c>
-      <c r="K53" t="n">
+      <c r="R53" t="n">
+        <v>6</v>
+      </c>
+      <c r="S53" t="n">
+        <v>9</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V53" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X53" t="n">
         <v>3</v>
       </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" t="n">
-        <v>4</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>['17', '30', '45', '86']</t>
-        </is>
-      </c>
-      <c r="Q53" t="n">
-        <v>8</v>
-      </c>
-      <c r="R53" t="n">
-        <v>4</v>
-      </c>
-      <c r="S53" t="n">
-        <v>12</v>
-      </c>
-      <c r="T53" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="U53" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="V53" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="W53" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X53" t="n">
-        <v>3.05</v>
-      </c>
       <c r="Y53" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AA53" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB53" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AC53" t="n">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="AD53" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AE53" t="n">
-        <v>1.83</v>
+        <v>4.5</v>
       </c>
       <c r="AF53" t="n">
         <v>1.01</v>
       </c>
       <c r="AG53" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH53" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AI53" t="n">
-        <v>3.74</v>
+        <v>3.6</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AK53" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AL53" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="AM53" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="AN53" t="n">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="AO53" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.23</v>
+        <v>2.08</v>
       </c>
       <c r="AQ53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR53" t="n">
         <v>0.33</v>
       </c>
-      <c r="AR53" t="n">
-        <v>1</v>
-      </c>
       <c r="AS53" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="AU53" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="AV53" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB53" t="n">
         <v>1.3</v>
       </c>
-      <c r="AW53" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>1.32</v>
-      </c>
       <c r="BC53" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BD53" t="n">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="BE53" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="BF53" t="n">
         <v>4</v>
       </c>
       <c r="BG53" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BH53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BI53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BK53" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -11315,7 +11315,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>3543245</v>
+        <v>3543249</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -11335,182 +11335,182 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Oleksandria</t>
+          <t>Chornomorets</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Hirnyk</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['7', '61']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['17', '30', '45', '86']</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T54" t="n">
-        <v>2.37</v>
+        <v>4.6</v>
       </c>
       <c r="U54" t="n">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="V54" t="n">
-        <v>4.72</v>
+        <v>2.39</v>
       </c>
       <c r="W54" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X54" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Y54" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AA54" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB54" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AC54" t="n">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>4.5</v>
+        <v>1.83</v>
       </c>
       <c r="AF54" t="n">
         <v>1.01</v>
       </c>
       <c r="AG54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH54" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AI54" t="n">
-        <v>3.6</v>
+        <v>3.74</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AK54" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AL54" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AM54" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AN54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BA54" t="n">
         <v>1.2</v>
       </c>
-      <c r="AO54" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>1.16</v>
-      </c>
       <c r="BB54" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BC54" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="BD54" t="n">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="BE54" t="n">
-        <v>2.25</v>
+        <v>2.57</v>
       </c>
       <c r="BF54" t="n">
         <v>4</v>
       </c>
       <c r="BG54" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BH54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ54" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK54" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -11662,7 +11662,7 @@
         <v>2.38</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.94</v>
@@ -11862,7 +11862,7 @@
         <v>0.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
         <v>0.89</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -12271,7 +12271,7 @@
         <v>1.1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU58" t="n">
         <v>0.6</v>
@@ -12533,7 +12533,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>3543257</v>
+        <v>3543256</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -12553,12 +12553,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Veres Rivne</t>
+          <t>Metal Kharkiv</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Dnipro-1</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -12586,149 +12586,149 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
         <v>7</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
+        <v>7</v>
+      </c>
+      <c r="T60" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR60" t="n">
         <v>3</v>
       </c>
-      <c r="S60" t="n">
-        <v>10</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" t="n">
-        <v>0</v>
-      </c>
-      <c r="X60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AS60" t="n">
-        <v>0.22</v>
+        <v>0.78</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AU60" t="n">
-        <v>1.36</v>
+        <v>1.03</v>
       </c>
       <c r="AV60" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="AW60" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ60" t="n">
         <v>3</v>
       </c>
-      <c r="AX60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF60" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH60" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI60" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>6</v>
-      </c>
       <c r="BK60" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -12877,7 +12877,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT61" t="n">
         <v>0.8</v>
@@ -12939,7 +12939,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>3543256</v>
+        <v>3543257</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -12959,12 +12959,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Metal Kharkiv</t>
+          <t>Veres Rivne</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Dnipro-1</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -12992,149 +12992,149 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>['85']</t>
+          <t>['73']</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R62" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S62" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T62" t="n">
-        <v>5.65</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AB62" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AC62" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD62" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AF62" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AG62" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH62" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AI62" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AK62" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AL62" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AM62" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AN62" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AO62" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW62" t="n">
         <v>3</v>
       </c>
-      <c r="AS62" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>2.98</v>
-      </c>
       <c r="AX62" t="n">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="AY62" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AZ62" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="BA62" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="BB62" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BC62" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="BD62" t="n">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="BE62" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="BF62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK62" t="n">
         <v>8</v>
-      </c>
-      <c r="BJ62" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK62" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -13486,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>0.96</v>
@@ -13895,7 +13895,7 @@
         <v>1.1</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU66" t="n">
         <v>0.6</v>
@@ -14095,10 +14095,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU67" t="n">
         <v>1.39</v>
@@ -14298,7 +14298,7 @@
         <v>2.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT68" t="n">
         <v>1.25</v>
@@ -14504,7 +14504,7 @@
         <v>0.89</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>0.95</v>
@@ -14907,7 +14907,7 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT71" t="n">
         <v>1.1</v>
@@ -15113,7 +15113,7 @@
         <v>1.56</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU72" t="n">
         <v>0.86</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT73" t="n">
         <v>0.5600000000000001</v>
@@ -15375,7 +15375,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>3543270</v>
+        <v>3543273</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -15395,182 +15395,182 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Oleksandria</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Metal Kharkiv</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74" t="n">
         <v>5</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>['8', '61', '68', '73']</t>
+          <t>['72', '89', '90+3']</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>['53']</t>
+          <t>['58', '75']</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S74" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T74" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="U74" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="V74" t="n">
         <v>4.42</v>
       </c>
       <c r="W74" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="X74" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y74" t="n">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AA74" t="n">
-        <v>7.9</v>
+        <v>6.3</v>
       </c>
       <c r="AB74" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AC74" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="AD74" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AE74" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="AF74" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AG74" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AH74" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AI74" t="n">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="AJ74" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AK74" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="AL74" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="AM74" t="n">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="AN74" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AO74" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR74" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="AT74" t="n">
         <v>1</v>
       </c>
       <c r="AU74" t="n">
-        <v>1.12</v>
+        <v>1.58</v>
       </c>
       <c r="AV74" t="n">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="AW74" t="n">
-        <v>2.11</v>
+        <v>2.61</v>
       </c>
       <c r="AX74" t="n">
-        <v>1.66</v>
+        <v>1.37</v>
       </c>
       <c r="AY74" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ74" t="n">
-        <v>2.69</v>
+        <v>3.82</v>
       </c>
       <c r="BA74" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB74" t="n">
         <v>1.29</v>
       </c>
-      <c r="BB74" t="n">
-        <v>1.53</v>
-      </c>
       <c r="BC74" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BD74" t="n">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="BE74" t="n">
-        <v>3.5</v>
+        <v>2.43</v>
       </c>
       <c r="BF74" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BG74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH74" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ74" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BK74" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
@@ -15578,7 +15578,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>3543273</v>
+        <v>3543270</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -15598,182 +15598,182 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Oleksandria</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Metal Kharkiv</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
         <v>5</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>['72', '89', '90+3']</t>
+          <t>['8', '61', '68', '73']</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>['58', '75']</t>
+          <t>['53']</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S75" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T75" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="U75" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="V75" t="n">
         <v>4.42</v>
       </c>
       <c r="W75" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="X75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD75" t="n">
         <v>3</v>
       </c>
-      <c r="Y75" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AE75" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="AF75" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AG75" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AI75" t="n">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AK75" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="AL75" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AM75" t="n">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="AN75" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AO75" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR75" t="n">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
-        <v>1.58</v>
+        <v>1.12</v>
       </c>
       <c r="AV75" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="AW75" t="n">
-        <v>2.61</v>
+        <v>2.11</v>
       </c>
       <c r="AX75" t="n">
-        <v>1.37</v>
+        <v>1.66</v>
       </c>
       <c r="AY75" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AZ75" t="n">
-        <v>3.82</v>
+        <v>2.69</v>
       </c>
       <c r="BA75" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="BB75" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="BC75" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BD75" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="BE75" t="n">
-        <v>2.43</v>
+        <v>3.5</v>
       </c>
       <c r="BF75" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BG75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH75" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BI75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ75" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BK75" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -15922,10 +15922,10 @@
         <v>0.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.55</v>
@@ -16128,7 +16128,7 @@
         <v>1.1</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU77" t="n">
         <v>0.78</v>
@@ -16331,7 +16331,7 @@
         <v>2.38</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU78" t="n">
         <v>1.99</v>
@@ -16390,7 +16390,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>3543274</v>
+        <v>3543269</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -16410,149 +16410,149 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Chornomorets</t>
+          <t>Rukh Vynnyky</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv</t>
+          <t>Hirnyk</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
         <v>3</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['53', '57']</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>['25', '48', '90+2']</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R79" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S79" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="T79" t="n">
-        <v>6.74</v>
+        <v>2.92</v>
       </c>
       <c r="U79" t="n">
-        <v>2.42</v>
+        <v>2.17</v>
       </c>
       <c r="V79" t="n">
-        <v>1.98</v>
+        <v>3.86</v>
       </c>
       <c r="W79" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="X79" t="n">
-        <v>3.13</v>
+        <v>2.75</v>
       </c>
       <c r="Y79" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AA79" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT79" t="n">
         <v>1.1</v>
       </c>
-      <c r="AC79" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AU79" t="n">
-        <v>0.88</v>
+        <v>1.27</v>
       </c>
       <c r="AV79" t="n">
-        <v>1.99</v>
+        <v>0.96</v>
       </c>
       <c r="AW79" t="n">
-        <v>2.87</v>
+        <v>2.23</v>
       </c>
       <c r="AX79" t="n">
-        <v>7.8</v>
+        <v>2.5</v>
       </c>
       <c r="AY79" t="n">
-        <v>11</v>
+        <v>6.9</v>
       </c>
       <c r="AZ79" t="n">
-        <v>1.17</v>
+        <v>1.89</v>
       </c>
       <c r="BA79" t="n">
         <v>1.22</v>
@@ -16570,22 +16570,22 @@
         <v>3</v>
       </c>
       <c r="BF79" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG79" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH79" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI79" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ79" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK79" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -16593,7 +16593,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>3543269</v>
+        <v>3543274</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -16613,149 +16613,149 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Rukh Vynnyky</t>
+          <t>Chornomorets</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hirnyk</t>
+          <t>Dynamo Kyiv</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N80" t="n">
         <v>3</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['53', '57']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>['25', '48', '90+2']</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="R80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T80" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG80" t="n">
         <v>10</v>
       </c>
-      <c r="S80" t="n">
-        <v>16</v>
-      </c>
-      <c r="T80" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U80" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="V80" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="W80" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X80" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG80" t="n">
+      <c r="AH80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AY80" t="n">
         <v>11</v>
       </c>
-      <c r="AH80" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AZ80" t="n">
-        <v>1.89</v>
+        <v>1.17</v>
       </c>
       <c r="BA80" t="n">
         <v>1.22</v>
@@ -16773,22 +16773,22 @@
         <v>3</v>
       </c>
       <c r="BF80" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BG80" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BH80" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BI80" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BJ80" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BK80" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -17143,7 +17143,7 @@
         <v>1.33</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU82" t="n">
         <v>1.14</v>
@@ -17343,7 +17343,7 @@
         <v>0.8</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT83" t="n">
         <v>0.8</v>
@@ -18358,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT88" t="n">
         <v>1.25</v>
@@ -18561,7 +18561,7 @@
         <v>3</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT89" t="n">
         <v>2.3</v>
@@ -18767,7 +18767,7 @@
         <v>2.1</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU90" t="n">
         <v>1.27</v>
@@ -18826,7 +18826,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>3543285</v>
+        <v>3543290</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -18846,182 +18846,182 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Metalist 1925 Kharkiv</t>
+          <t>Dynamo Kyiv</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>['40', '78']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>['23']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R91" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>8</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V91" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI91" t="n">
         <v>4</v>
       </c>
-      <c r="S91" t="n">
-        <v>10</v>
-      </c>
-      <c r="T91" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U91" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="V91" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="W91" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X91" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>3.1</v>
-      </c>
       <c r="AJ91" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AK91" t="n">
-        <v>1.64</v>
+        <v>2.1</v>
       </c>
       <c r="AL91" t="n">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="AM91" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="AN91" t="n">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AO91" t="n">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.5</v>
+        <v>2.95</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.14</v>
+        <v>2.17</v>
       </c>
       <c r="AR91" t="n">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
-        <v>0.92</v>
+        <v>1.54</v>
       </c>
       <c r="AV91" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="AW91" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="AX91" t="n">
-        <v>2.08</v>
+        <v>1.13</v>
       </c>
       <c r="AY91" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="AZ91" t="n">
-        <v>2.04</v>
+        <v>7.5</v>
       </c>
       <c r="BA91" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="BB91" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="BC91" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="BD91" t="n">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BE91" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="BF91" t="n">
         <v>6</v>
       </c>
       <c r="BG91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH91" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ91" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK91" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -19170,10 +19170,10 @@
         <v>1.71</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU92" t="n">
         <v>1.58</v>
@@ -19232,7 +19232,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>3543290</v>
+        <v>3543285</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -19252,182 +19252,182 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv</t>
+          <t>Metalist 1925 Kharkiv</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['40', '78']</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['23']</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S93" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T93" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AM93" t="n">
         <v>1.95</v>
       </c>
-      <c r="U93" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="V93" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="W93" t="n">
+      <c r="AN93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO93" t="n">
         <v>1.35</v>
       </c>
-      <c r="X93" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB93" t="n">
+      <c r="AP93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS93" t="n">
         <v>1.1</v>
       </c>
-      <c r="AC93" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH93" t="n">
+      <c r="AT93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA93" t="n">
         <v>1.22</v>
       </c>
-      <c r="AI93" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AP93" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AQ93" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AR93" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AS93" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AT93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU93" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AV93" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AW93" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AX93" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AY93" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ93" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BA93" t="n">
-        <v>1.19</v>
-      </c>
       <c r="BB93" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="BC93" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="BD93" t="n">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="BE93" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="BF93" t="n">
         <v>6</v>
       </c>
       <c r="BG93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH93" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BI93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ93" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BK93" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU96" t="n">
         <v>1.34</v>
@@ -21000,7 +21000,7 @@
         <v>0.67</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU101" t="n">
         <v>0.99</v>
@@ -21200,7 +21200,7 @@
         <v>0.75</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT102" t="n">
         <v>1.11</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT105" t="n">
         <v>0.8</v>
@@ -22015,7 +22015,7 @@
         <v>0.7</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>0.96</v>
@@ -22218,7 +22218,7 @@
         <v>1.33</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU107" t="n">
         <v>1.01</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT108" t="n">
         <v>1.11</v>
@@ -22827,7 +22827,7 @@
         <v>2.33</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU110" t="n">
         <v>1.87</v>
@@ -23230,7 +23230,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT112" t="n">
         <v>2.3</v>
@@ -23433,10 +23433,10 @@
         <v>1.38</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.6</v>
@@ -24651,7 +24651,7 @@
         <v>0.86</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -24916,7 +24916,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>3543316</v>
+        <v>3543310</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -24936,179 +24936,179 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv</t>
+          <t>Veres Rivne</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Chornomorets</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['61']</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>['12', '43']</t>
+          <t>['12', '76', '90+3']</t>
         </is>
       </c>
       <c r="Q121" t="n">
+        <v>5</v>
+      </c>
+      <c r="R121" t="n">
         <v>6</v>
       </c>
-      <c r="R121" t="n">
-        <v>1</v>
-      </c>
       <c r="S121" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T121" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U121" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="V121" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="W121" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="X121" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="Y121" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="Z121" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AA121" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AB121" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AC121" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="AD121" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="AE121" t="n">
-        <v>7.75</v>
+        <v>3.5</v>
       </c>
       <c r="AF121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU121" t="n">
         <v>1.02</v>
       </c>
-      <c r="AG121" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH121" t="n">
+      <c r="AV121" t="n">
         <v>1.18</v>
       </c>
-      <c r="AI121" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AL121" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AM121" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN121" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AO121" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AP121" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AQ121" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR121" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AS121" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AT121" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AU121" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AV121" t="n">
-        <v>1.01</v>
-      </c>
       <c r="AW121" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="AX121" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AY121" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AZ121" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="BA121" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="BB121" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BC121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD121" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="BE121" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="BF121" t="n">
         <v>3</v>
       </c>
       <c r="BG121" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH121" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BI121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ121" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BK121" t="n">
         <v>8</v>
@@ -25119,7 +25119,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>3543310</v>
+        <v>3543316</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -25139,179 +25139,179 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Veres Rivne</t>
+          <t>Dynamo Kyiv</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Chornomorets</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N122" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>['61']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>['12', '76', '90+3']</t>
+          <t>['12', '43']</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R122" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S122" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T122" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U122" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="V122" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="W122" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X122" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="Y122" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="Z122" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AA122" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AB122" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AC122" t="n">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="AD122" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="AE122" t="n">
-        <v>3.5</v>
+        <v>7.75</v>
       </c>
       <c r="AF122" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AG122" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH122" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI122" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AJ122" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AK122" t="n">
-        <v>1.67</v>
+        <v>2.03</v>
       </c>
       <c r="AL122" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AM122" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN122" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AO122" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AP122" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="AR122" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.22</v>
+        <v>1.75</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
-        <v>1.02</v>
+        <v>1.62</v>
       </c>
       <c r="AV122" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="AW122" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AX122" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AY122" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AZ122" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BA122" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="BB122" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BC122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD122" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BE122" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="BF122" t="n">
         <v>3</v>
       </c>
       <c r="BG122" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH122" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BI122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BJ122" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BK122" t="n">
         <v>8</v>
@@ -25322,7 +25322,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>3543315</v>
+        <v>3543313</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -25342,59 +25342,59 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Vorskla</t>
+          <t>Metal Kharkiv</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Rukh Vynnyky</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M123" t="n">
+        <v>2</v>
+      </c>
+      <c r="N123" t="n">
         <v>3</v>
       </c>
-      <c r="N123" t="n">
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['17', '76']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
         <v>5</v>
       </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>['5', '16']</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>['57', '90+1', '90+4']</t>
-        </is>
-      </c>
-      <c r="Q123" t="n">
-        <v>6</v>
-      </c>
       <c r="R123" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S123" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T123" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V123" t="n">
         <v>3.62</v>
-      </c>
-      <c r="U123" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="V123" t="n">
-        <v>2.97</v>
       </c>
       <c r="W123" t="n">
         <v>1.38</v>
@@ -25403,121 +25403,121 @@
         <v>2.9</v>
       </c>
       <c r="Y123" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Z123" t="n">
         <v>1.41</v>
       </c>
       <c r="AA123" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB123" t="n">
         <v>1.09</v>
       </c>
       <c r="AC123" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AD123" t="n">
-        <v>3.25</v>
+        <v>4.79</v>
       </c>
       <c r="AE123" t="n">
-        <v>2.25</v>
+        <v>1.81</v>
       </c>
       <c r="AF123" t="n">
         <v>1.04</v>
       </c>
       <c r="AG123" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH123" t="n">
         <v>1.27</v>
       </c>
       <c r="AI123" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AJ123" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="AK123" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="AL123" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AM123" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="AN123" t="n">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="AO123" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="AQ123" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB123" t="n">
         <v>1.57</v>
       </c>
-      <c r="AR123" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AS123" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT123" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AU123" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AV123" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AW123" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AX123" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AY123" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AZ123" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BA123" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="BB123" t="n">
-        <v>1.3</v>
-      </c>
       <c r="BC123" t="n">
-        <v>1.55</v>
+        <v>2.03</v>
       </c>
       <c r="BD123" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="BE123" t="n">
-        <v>2.51</v>
+        <v>3.74</v>
       </c>
       <c r="BF123" t="n">
         <v>5</v>
       </c>
       <c r="BG123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI123" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ123" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK123" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
@@ -25525,7 +25525,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>3543313</v>
+        <v>3543315</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -25545,59 +25545,59 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Metal Kharkiv</t>
+          <t>Vorskla</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Rukh Vynnyky</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N124" t="n">
+        <v>5</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['5', '16']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['57', '90+1', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>6</v>
+      </c>
+      <c r="R124" t="n">
         <v>3</v>
       </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>['49']</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>['17', '76']</t>
-        </is>
-      </c>
-      <c r="Q124" t="n">
-        <v>5</v>
-      </c>
-      <c r="R124" t="n">
-        <v>8</v>
-      </c>
       <c r="S124" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T124" t="n">
-        <v>2.92</v>
+        <v>3.62</v>
       </c>
       <c r="U124" t="n">
-        <v>2.23</v>
+        <v>2.21</v>
       </c>
       <c r="V124" t="n">
-        <v>3.62</v>
+        <v>2.97</v>
       </c>
       <c r="W124" t="n">
         <v>1.38</v>
@@ -25606,121 +25606,121 @@
         <v>2.9</v>
       </c>
       <c r="Y124" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z124" t="n">
         <v>1.41</v>
       </c>
       <c r="AA124" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB124" t="n">
         <v>1.09</v>
       </c>
       <c r="AC124" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="AD124" t="n">
-        <v>4.79</v>
+        <v>3.25</v>
       </c>
       <c r="AE124" t="n">
-        <v>1.81</v>
+        <v>2.25</v>
       </c>
       <c r="AF124" t="n">
         <v>1.04</v>
       </c>
       <c r="AG124" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH124" t="n">
         <v>1.27</v>
       </c>
       <c r="AI124" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AJ124" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="AK124" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AL124" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AM124" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AN124" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP124" t="n">
         <v>1.39</v>
       </c>
-      <c r="AO124" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP124" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AQ124" t="n">
-        <v>0.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR124" t="n">
-        <v>0.83</v>
+        <v>1.63</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.78</v>
+        <v>1.5</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.89</v>
+        <v>1.73</v>
       </c>
       <c r="AU124" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="AV124" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AW124" t="n">
-        <v>2.23</v>
+        <v>2.74</v>
       </c>
       <c r="AX124" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="AY124" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AZ124" t="n">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="BA124" t="n">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="BB124" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="BC124" t="n">
-        <v>2.03</v>
+        <v>1.55</v>
       </c>
       <c r="BD124" t="n">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="BE124" t="n">
-        <v>3.74</v>
+        <v>2.51</v>
       </c>
       <c r="BF124" t="n">
         <v>5</v>
       </c>
       <c r="BG124" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ124" t="n">
         <v>6</v>
       </c>
-      <c r="BJ124" t="n">
-        <v>9</v>
-      </c>
       <c r="BK124" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
@@ -26075,7 +26075,7 @@
         <v>0.89</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU126" t="n">
         <v>1.08</v>
@@ -26481,7 +26481,7 @@
         <v>1.33</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.04</v>
@@ -27493,7 +27493,7 @@
         <v>2.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT133" t="n">
         <v>2.38</v>
@@ -28102,7 +28102,7 @@
         <v>1.13</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT136" t="n">
         <v>1.11</v>
@@ -28164,7 +28164,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>3543332</v>
+        <v>3543326</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -28184,182 +28184,182 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv</t>
+          <t>Lviv</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Hirnyk</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['74', '87']</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>['83']</t>
+          <t>['19', '79']</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T137" t="n">
-        <v>2.35</v>
+        <v>4.75</v>
       </c>
       <c r="U137" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="V137" t="n">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="W137" t="n">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="X137" t="n">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="Y137" t="n">
-        <v>2.6</v>
+        <v>3.54</v>
       </c>
       <c r="Z137" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH137" t="n">
         <v>1.45</v>
       </c>
-      <c r="AA137" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AB137" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC137" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AD137" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE137" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AF137" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG137" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH137" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AI137" t="n">
-        <v>3.7</v>
+        <v>2.55</v>
       </c>
       <c r="AJ137" t="n">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="AK137" t="n">
-        <v>2.02</v>
+        <v>1.48</v>
       </c>
       <c r="AL137" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="AM137" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="AN137" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="AO137" t="n">
         <v>1.28</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.9</v>
+        <v>1.22</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AR137" t="n">
-        <v>1.78</v>
+        <v>0.88</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.64</v>
+        <v>0.89</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="AU137" t="n">
-        <v>1.59</v>
+        <v>1.08</v>
       </c>
       <c r="AV137" t="n">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="AW137" t="n">
-        <v>3.06</v>
+        <v>2.29</v>
       </c>
       <c r="AX137" t="n">
-        <v>1.39</v>
+        <v>3.6</v>
       </c>
       <c r="AY137" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="AZ137" t="n">
-        <v>3.74</v>
+        <v>1.42</v>
       </c>
       <c r="BA137" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="BB137" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="BC137" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="BD137" t="n">
-        <v>2.43</v>
+        <v>2.88</v>
       </c>
       <c r="BE137" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="BF137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK137" t="n">
         <v>4</v>
-      </c>
-      <c r="BG137" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH137" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI137" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ137" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK137" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="138">
@@ -28367,7 +28367,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>3543326</v>
+        <v>3543332</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -28387,182 +28387,182 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Lviv</t>
+          <t>Dynamo Kyiv</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Hirnyk</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N138" t="n">
+        <v>1</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
         <v>4</v>
       </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>['74', '87']</t>
-        </is>
-      </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>['19', '79']</t>
-        </is>
-      </c>
-      <c r="Q138" t="n">
-        <v>1</v>
-      </c>
       <c r="R138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S138" t="n">
+        <v>4</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V138" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X138" t="n">
         <v>3</v>
       </c>
-      <c r="T138" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="U138" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V138" t="n">
+      <c r="Y138" t="n">
         <v>2.6</v>
       </c>
-      <c r="W138" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X138" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Y138" t="n">
-        <v>3.54</v>
-      </c>
       <c r="Z138" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AA138" t="n">
-        <v>9.4</v>
+        <v>6.75</v>
       </c>
       <c r="AB138" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AC138" t="n">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="AD138" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="AE138" t="n">
-        <v>2.17</v>
+        <v>3.95</v>
       </c>
       <c r="AF138" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AG138" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AH138" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="AI138" t="n">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="AJ138" t="n">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="AK138" t="n">
-        <v>1.48</v>
+        <v>2.02</v>
       </c>
       <c r="AL138" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="AM138" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="AN138" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="AO138" t="n">
         <v>1.28</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.22</v>
+        <v>1.9</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AR138" t="n">
-        <v>0.88</v>
+        <v>1.78</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.89</v>
+        <v>1.75</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.1</v>
+        <v>1.73</v>
       </c>
       <c r="AU138" t="n">
-        <v>1.08</v>
+        <v>1.59</v>
       </c>
       <c r="AV138" t="n">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AW138" t="n">
-        <v>2.29</v>
+        <v>3.06</v>
       </c>
       <c r="AX138" t="n">
-        <v>3.6</v>
+        <v>1.39</v>
       </c>
       <c r="AY138" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="AZ138" t="n">
-        <v>1.42</v>
+        <v>3.74</v>
       </c>
       <c r="BA138" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="BB138" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="BC138" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="BD138" t="n">
-        <v>2.88</v>
+        <v>2.43</v>
       </c>
       <c r="BE138" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="BF138" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH138" t="n">
         <v>3</v>
       </c>
-      <c r="BH138" t="n">
+      <c r="BI138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK138" t="n">
         <v>8</v>
-      </c>
-      <c r="BI138" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ138" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK138" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -29120,7 +29120,7 @@
         <v>1.56</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU141" t="n">
         <v>1.01</v>
@@ -29320,7 +29320,7 @@
         <v>1.14</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT142" t="n">
         <v>0.89</v>
@@ -29526,7 +29526,7 @@
         <v>0.67</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.11</v>
@@ -30600,7 +30600,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>3543341</v>
+        <v>3543343</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -30620,182 +30620,182 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Chornomorets</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Rukh Vynnyky</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>['18', '64', '86']</t>
+          <t>['8', '41']</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['1', '19']</t>
         </is>
       </c>
       <c r="Q149" t="n">
         <v>5</v>
       </c>
       <c r="R149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S149" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T149" t="n">
-        <v>2.09</v>
+        <v>6.5</v>
       </c>
       <c r="U149" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="V149" t="n">
-        <v>5.2</v>
+        <v>1.85</v>
       </c>
       <c r="W149" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X149" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Y149" t="n">
         <v>2.4</v>
       </c>
       <c r="Z149" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AA149" t="n">
-        <v>5.75</v>
+        <v>5.45</v>
       </c>
       <c r="AB149" t="n">
         <v>1.12</v>
       </c>
       <c r="AC149" t="n">
-        <v>1.47</v>
+        <v>6</v>
       </c>
       <c r="AD149" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AE149" t="n">
-        <v>5.3</v>
+        <v>1.37</v>
       </c>
       <c r="AF149" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG149" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH149" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AI149" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AJ149" t="n">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="AK149" t="n">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="AL149" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="AM149" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AN149" t="n">
-        <v>1.16</v>
+        <v>3</v>
       </c>
       <c r="AO149" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AP149" t="n">
-        <v>2.3</v>
+        <v>1.09</v>
       </c>
       <c r="AQ149" t="n">
-        <v>2.25</v>
+        <v>0.67</v>
       </c>
       <c r="AR149" t="n">
-        <v>1</v>
+        <v>2.57</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.33</v>
+        <v>0.7</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.89</v>
+        <v>2.38</v>
       </c>
       <c r="AU149" t="n">
-        <v>1.85</v>
+        <v>1.19</v>
       </c>
       <c r="AV149" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BA149" t="n">
         <v>1.33</v>
       </c>
-      <c r="AW149" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AX149" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AY149" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ149" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BA149" t="n">
-        <v>1.13</v>
-      </c>
       <c r="BB149" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="BC149" t="n">
-        <v>1.56</v>
+        <v>2.04</v>
       </c>
       <c r="BD149" t="n">
-        <v>1.88</v>
+        <v>2.67</v>
       </c>
       <c r="BE149" t="n">
-        <v>2.31</v>
+        <v>3.65</v>
       </c>
       <c r="BF149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG149" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI149" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="BJ149" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK149" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150">
@@ -30803,7 +30803,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>3543343</v>
+        <v>3543341</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -30823,182 +30823,1197 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Chornomorets</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Rukh Vynnyky</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>['8', '41']</t>
+          <t>['18', '64', '86']</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>['1', '19']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q150" t="n">
         <v>5</v>
       </c>
       <c r="R150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S150" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T150" t="n">
-        <v>6.5</v>
+        <v>2.09</v>
       </c>
       <c r="U150" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="V150" t="n">
-        <v>1.85</v>
+        <v>5.2</v>
       </c>
       <c r="W150" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X150" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Y150" t="n">
         <v>2.4</v>
       </c>
       <c r="Z150" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="AA150" t="n">
-        <v>5.45</v>
+        <v>5.75</v>
       </c>
       <c r="AB150" t="n">
         <v>1.12</v>
       </c>
       <c r="AC150" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ150" t="n">
         <v>6</v>
       </c>
-      <c r="AD150" t="n">
+      <c r="BK150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3543347</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45023.375</v>
+      </c>
+      <c r="F151" t="n">
+        <v>20</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Vorskla</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>7</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2</v>
+      </c>
+      <c r="S151" t="n">
+        <v>9</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2</v>
+      </c>
+      <c r="V151" t="n">
+        <v>4</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>3543349</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45024.29166666666</v>
+      </c>
+      <c r="F152" t="n">
+        <v>20</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Hirnyk</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Zorya</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>3</v>
+      </c>
+      <c r="R152" t="n">
+        <v>4</v>
+      </c>
+      <c r="S152" t="n">
+        <v>7</v>
+      </c>
+      <c r="T152" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3543350</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45024.29166666666</v>
+      </c>
+      <c r="F153" t="n">
+        <v>20</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Dynamo Kyiv</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Minai</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>2</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['35', '62']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>4</v>
+      </c>
+      <c r="R153" t="n">
+        <v>8</v>
+      </c>
+      <c r="S153" t="n">
+        <v>12</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V153" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3543351</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45024.33333333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>20</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Shakhtar Donetsk</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Metal Kharkiv</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>6</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1</v>
+      </c>
+      <c r="S154" t="n">
+        <v>7</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V154" t="n">
+        <v>10</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI154" t="n">
         <v>4.5</v>
       </c>
-      <c r="AE150" t="n">
+      <c r="AJ154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB154" t="n">
         <v>1.37</v>
       </c>
-      <c r="AF150" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG150" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH150" t="n">
+      <c r="BC154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3543344</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Rukh Vynnyky</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Veres Rivne</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T155" t="n">
+        <v>0</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0</v>
+      </c>
+      <c r="V155" t="n">
+        <v>0</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0</v>
+      </c>
+      <c r="X155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV155" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI150" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ150" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AK150" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AL150" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AM150" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN150" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO150" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AP150" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AQ150" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AR150" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AS150" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AT150" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU150" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AV150" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AW150" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AX150" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY150" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ150" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BA150" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BB150" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BC150" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="BD150" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="BE150" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="BF150" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG150" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH150" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI150" t="n">
-        <v>18</v>
-      </c>
-      <c r="BJ150" t="n">
-        <v>5</v>
-      </c>
-      <c r="BK150" t="n">
-        <v>26</v>
+      <c r="AW155" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK155"/>
+  <dimension ref="A1:BK158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.45</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT5" t="n">
         <v>1.1</v>
@@ -2527,7 +2527,7 @@
         <v>1.1</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT11" t="n">
         <v>0.89</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>1.09</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT17" t="n">
         <v>1.55</v>
@@ -4760,7 +4760,7 @@
         <v>1.7</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>2.45</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU26" t="n">
         <v>2.15</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>1.47</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>1.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.3</v>
@@ -6993,7 +6993,7 @@
         <v>0.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU32" t="n">
         <v>1.02</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -9226,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU43" t="n">
         <v>1.18</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT44" t="n">
         <v>1.73</v>
@@ -10444,7 +10444,7 @@
         <v>1.1</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU49" t="n">
         <v>0.6</v>
@@ -11253,7 +11253,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
         <v>1.1</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -12471,10 +12471,10 @@
         <v>1.25</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU59" t="n">
         <v>1.41</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.25</v>
@@ -13689,10 +13689,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU65" t="n">
         <v>0.86</v>
@@ -14704,10 +14704,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU70" t="n">
         <v>1.99</v>
@@ -15110,7 +15110,7 @@
         <v>2.17</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT72" t="n">
         <v>1.55</v>
@@ -15316,7 +15316,7 @@
         <v>1.5</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU73" t="n">
         <v>1.34</v>
@@ -15719,7 +15719,7 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
         <v>1</v>
@@ -16328,7 +16328,7 @@
         <v>1.4</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT78" t="n">
         <v>1.09</v>
@@ -16940,7 +16940,7 @@
         <v>0.78</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU81" t="n">
         <v>0.89</v>
@@ -17546,7 +17546,7 @@
         <v>3</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT84" t="n">
         <v>2.3</v>
@@ -18158,7 +18158,7 @@
         <v>0.67</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU87" t="n">
         <v>0.9399999999999999</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
         <v>1.55</v>
@@ -19782,7 +19782,7 @@
         <v>0.7</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU95" t="n">
         <v>0.88</v>
@@ -20591,7 +20591,7 @@
         <v>3</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT99" t="n">
         <v>2.38</v>
@@ -20794,7 +20794,7 @@
         <v>0.67</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT100" t="n">
         <v>0.8</v>
@@ -21203,7 +21203,7 @@
         <v>1.7</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.17</v>
@@ -21406,7 +21406,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU103" t="n">
         <v>0.95</v>
@@ -22421,7 +22421,7 @@
         <v>1.75</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.58</v>
@@ -23027,7 +23027,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT111" t="n">
         <v>0.89</v>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU116" t="n">
         <v>1.39</v>
@@ -24245,10 +24245,10 @@
         <v>1.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU117" t="n">
         <v>1.38</v>
@@ -24854,7 +24854,7 @@
         <v>2.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT120" t="n">
         <v>2.3</v>
@@ -25060,7 +25060,7 @@
         <v>0.22</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU121" t="n">
         <v>1.02</v>
@@ -26684,7 +26684,7 @@
         <v>2.33</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.83</v>
@@ -26887,7 +26887,7 @@
         <v>0.7</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.19</v>
@@ -27290,7 +27290,7 @@
         <v>2</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT132" t="n">
         <v>2.25</v>
@@ -28105,7 +28105,7 @@
         <v>1.5</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU136" t="n">
         <v>1.29</v>
@@ -28917,7 +28917,7 @@
         <v>1.33</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU140" t="n">
         <v>1.12</v>
@@ -29117,7 +29117,7 @@
         <v>1</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT141" t="n">
         <v>1.09</v>
@@ -30132,7 +30132,7 @@
         <v>0.89</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT146" t="n">
         <v>0.8</v>
@@ -31875,13 +31875,13 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R155" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S155" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="T155" t="n">
         <v>0</v>
@@ -31998,22 +31998,631 @@
         <v>0</v>
       </c>
       <c r="BF155" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG155" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH155" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BI155" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ155" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK155" t="n">
-        <v>-1</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3543346</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45025.29166666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>20</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Oleksandria</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Chornomorets</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>12</v>
+      </c>
+      <c r="R156" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" t="n">
+        <v>15</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V156" t="n">
+        <v>4</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3543348</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45025.29166666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>20</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Dnipro-1</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Lviv</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>3</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>3</v>
+      </c>
+      <c r="L157" t="n">
+        <v>5</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" t="n">
+        <v>7</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['7', '41', '44', '83', '90+3']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['62', '81']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>5</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2</v>
+      </c>
+      <c r="S157" t="n">
+        <v>7</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V157" t="n">
+        <v>8</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X157" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3543345</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Ukraine Ukrainian Premier League</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45025.375</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Kolos Kovalivka</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Metalist 1925 Kharkiv</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" t="n">
+        <v>3</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['3', '35', '64']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>6</v>
+      </c>
+      <c r="R158" t="n">
+        <v>5</v>
+      </c>
+      <c r="S158" t="n">
+        <v>11</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V158" t="n">
+        <v>4</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ukraine Ukrainian Premier League_20222023.xlsx
@@ -24916,7 +24916,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>3543310</v>
+        <v>3543316</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -24936,179 +24936,179 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Veres Rivne</t>
+          <t>Dynamo Kyiv</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Chornomorets</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>['61']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>['12', '76', '90+3']</t>
+          <t>['12', '43']</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R121" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S121" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T121" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U121" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="V121" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="W121" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X121" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="Y121" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="Z121" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AA121" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AB121" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AC121" t="n">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="AD121" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="AE121" t="n">
-        <v>3.5</v>
+        <v>7.75</v>
       </c>
       <c r="AF121" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AG121" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH121" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI121" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AJ121" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AK121" t="n">
-        <v>1.67</v>
+        <v>2.03</v>
       </c>
       <c r="AL121" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AM121" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN121" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AO121" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AP121" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="AR121" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.22</v>
+        <v>1.75</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AU121" t="n">
-        <v>1.02</v>
+        <v>1.62</v>
       </c>
       <c r="AV121" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="AW121" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AX121" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AY121" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AZ121" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BA121" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="BB121" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BC121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD121" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BE121" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="BF121" t="n">
         <v>3</v>
       </c>
       <c r="BG121" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH121" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BI121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BJ121" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BK121" t="n">
         <v>8</v>
@@ -25119,7 +25119,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>3543316</v>
+        <v>3543310</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -25139,179 +25139,179 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv</t>
+          <t>Veres Rivne</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Chornomorets</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N122" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['61']</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>['12', '43']</t>
+          <t>['12', '76', '90+3']</t>
         </is>
       </c>
       <c r="Q122" t="n">
+        <v>5</v>
+      </c>
+      <c r="R122" t="n">
         <v>6</v>
       </c>
-      <c r="R122" t="n">
-        <v>1</v>
-      </c>
       <c r="S122" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T122" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U122" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="V122" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="W122" t="n">
+        <v>0</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AT122" t="n">
         <v>1.3</v>
       </c>
-      <c r="X122" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Y122" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="Z122" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AA122" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AB122" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="AF122" t="n">
+      <c r="AU122" t="n">
         <v>1.02</v>
       </c>
-      <c r="AG122" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH122" t="n">
+      <c r="AV122" t="n">
         <v>1.18</v>
       </c>
-      <c r="AI122" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ122" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AK122" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AL122" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AM122" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN122" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AO122" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AP122" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AQ122" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR122" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AS122" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT122" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU122" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AV122" t="n">
-        <v>1.01</v>
-      </c>
       <c r="AW122" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="AX122" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AY122" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AZ122" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="BA122" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="BB122" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BC122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD122" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="BE122" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="BF122" t="n">
         <v>3</v>
       </c>
       <c r="BG122" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH122" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BI122" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ122" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BK122" t="n">
         <v>8</v>
@@ -28164,7 +28164,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>3543326</v>
+        <v>3543332</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -28184,182 +28184,182 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Lviv</t>
+          <t>Dynamo Kyiv</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Hirnyk</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N137" t="n">
+        <v>1</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
         <v>4</v>
       </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>['74', '87']</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>['19', '79']</t>
-        </is>
-      </c>
-      <c r="Q137" t="n">
-        <v>1</v>
-      </c>
       <c r="R137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S137" t="n">
+        <v>4</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V137" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X137" t="n">
         <v>3</v>
       </c>
-      <c r="T137" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="U137" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V137" t="n">
+      <c r="Y137" t="n">
         <v>2.6</v>
       </c>
-      <c r="W137" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X137" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Y137" t="n">
-        <v>3.54</v>
-      </c>
       <c r="Z137" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AA137" t="n">
-        <v>9.4</v>
+        <v>6.75</v>
       </c>
       <c r="AB137" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AC137" t="n">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="AD137" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="AE137" t="n">
-        <v>2.17</v>
+        <v>3.95</v>
       </c>
       <c r="AF137" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AG137" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AH137" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="AI137" t="n">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="AJ137" t="n">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="AK137" t="n">
-        <v>1.48</v>
+        <v>2.02</v>
       </c>
       <c r="AL137" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="AM137" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="AN137" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="AO137" t="n">
         <v>1.28</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.22</v>
+        <v>1.9</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AR137" t="n">
-        <v>0.88</v>
+        <v>1.78</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.89</v>
+        <v>1.75</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.1</v>
+        <v>1.73</v>
       </c>
       <c r="AU137" t="n">
-        <v>1.08</v>
+        <v>1.59</v>
       </c>
       <c r="AV137" t="n">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AW137" t="n">
-        <v>2.29</v>
+        <v>3.06</v>
       </c>
       <c r="AX137" t="n">
-        <v>3.6</v>
+        <v>1.39</v>
       </c>
       <c r="AY137" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="AZ137" t="n">
-        <v>1.42</v>
+        <v>3.74</v>
       </c>
       <c r="BA137" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="BB137" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="BC137" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="BD137" t="n">
-        <v>2.88</v>
+        <v>2.43</v>
       </c>
       <c r="BE137" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="BF137" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH137" t="n">
         <v>3</v>
       </c>
-      <c r="BH137" t="n">
+      <c r="BI137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK137" t="n">
         <v>8</v>
-      </c>
-      <c r="BI137" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ137" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK137" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -28367,7 +28367,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>3543332</v>
+        <v>3543326</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -28387,182 +28387,182 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv</t>
+          <t>Lviv</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Hirnyk</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N138" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['74', '87']</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>['83']</t>
+          <t>['19', '79']</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T138" t="n">
-        <v>2.35</v>
+        <v>4.75</v>
       </c>
       <c r="U138" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="V138" t="n">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="W138" t="n">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="X138" t="n">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="Y138" t="n">
-        <v>2.6</v>
+        <v>3.54</v>
       </c>
       <c r="Z138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH138" t="n">
         <v>1.45</v>
       </c>
-      <c r="AA138" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AB138" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AF138" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG138" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH138" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AI138" t="n">
-        <v>3.7</v>
+        <v>2.55</v>
       </c>
       <c r="AJ138" t="n">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="AK138" t="n">
-        <v>2.02</v>
+        <v>1.48</v>
       </c>
       <c r="AL138" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="AM138" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="AN138" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="AO138" t="n">
         <v>1.28</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.9</v>
+        <v>1.22</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AR138" t="n">
-        <v>1.78</v>
+        <v>0.88</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.75</v>
+        <v>0.89</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.73</v>
+        <v>1.1</v>
       </c>
       <c r="AU138" t="n">
-        <v>1.59</v>
+        <v>1.08</v>
       </c>
       <c r="AV138" t="n">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="AW138" t="n">
-        <v>3.06</v>
+        <v>2.29</v>
       </c>
       <c r="AX138" t="n">
-        <v>1.39</v>
+        <v>3.6</v>
       </c>
       <c r="AY138" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="AZ138" t="n">
-        <v>3.74</v>
+        <v>1.42</v>
       </c>
       <c r="BA138" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="BB138" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="BC138" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="BD138" t="n">
-        <v>2.43</v>
+        <v>2.88</v>
       </c>
       <c r="BE138" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="BF138" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK138" t="n">
         <v>4</v>
-      </c>
-      <c r="BG138" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH138" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI138" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ138" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK138" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="139">
@@ -30600,7 +30600,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>3543343</v>
+        <v>3543341</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -30620,182 +30620,182 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Chornomorets</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Rukh Vynnyky</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>['8', '41']</t>
+          <t>['18', '64', '86']</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>['1', '19']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q149" t="n">
         <v>5</v>
       </c>
       <c r="R149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S149" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T149" t="n">
-        <v>6.5</v>
+        <v>2.09</v>
       </c>
       <c r="U149" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="V149" t="n">
-        <v>1.85</v>
+        <v>5.2</v>
       </c>
       <c r="W149" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X149" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Y149" t="n">
         <v>2.4</v>
       </c>
       <c r="Z149" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="AA149" t="n">
-        <v>5.45</v>
+        <v>5.75</v>
       </c>
       <c r="AB149" t="n">
         <v>1.12</v>
       </c>
       <c r="AC149" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ149" t="n">
         <v>6</v>
       </c>
-      <c r="AD149" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AE149" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AF149" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG149" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH149" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI149" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ149" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AK149" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AL149" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AM149" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN149" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO149" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AP149" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AQ149" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AR149" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AS149" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AT149" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU149" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AV149" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AW149" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AX149" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY149" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ149" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BA149" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BB149" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BC149" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="BD149" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="BE149" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="BF149" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG149" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH149" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI149" t="n">
-        <v>18</v>
-      </c>
-      <c r="BJ149" t="n">
-        <v>5</v>
-      </c>
       <c r="BK149" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -30803,7 +30803,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>3543341</v>
+        <v>3543343</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -30823,182 +30823,182 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Chornomorets</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Rukh Vynnyky</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>['18', '64', '86']</t>
+          <t>['8', '41']</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['1', '19']</t>
         </is>
       </c>
       <c r="Q150" t="n">
         <v>5</v>
       </c>
       <c r="R150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S150" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T150" t="n">
-        <v>2.09</v>
+        <v>6.5</v>
       </c>
       <c r="U150" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="V150" t="n">
-        <v>5.2</v>
+        <v>1.85</v>
       </c>
       <c r="W150" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X150" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Y150" t="n">
         <v>2.4</v>
       </c>
       <c r="Z150" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AA150" t="n">
-        <v>5.75</v>
+        <v>5.45</v>
       </c>
       <c r="AB150" t="n">
         <v>1.12</v>
       </c>
       <c r="AC150" t="n">
-        <v>1.47</v>
+        <v>6</v>
       </c>
       <c r="AD150" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AE150" t="n">
-        <v>5.3</v>
+        <v>1.37</v>
       </c>
       <c r="AF150" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG150" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH150" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AI150" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AJ150" t="n">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="AK150" t="n">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="AL150" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="AM150" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AN150" t="n">
-        <v>1.16</v>
+        <v>3</v>
       </c>
       <c r="AO150" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.3</v>
+        <v>1.09</v>
       </c>
       <c r="AQ150" t="n">
-        <v>2.25</v>
+        <v>0.67</v>
       </c>
       <c r="AR150" t="n">
-        <v>1</v>
+        <v>2.57</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.33</v>
+        <v>0.7</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.89</v>
+        <v>2.38</v>
       </c>
       <c r="AU150" t="n">
-        <v>1.85</v>
+        <v>1.19</v>
       </c>
       <c r="AV150" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BA150" t="n">
         <v>1.33</v>
       </c>
-      <c r="AW150" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AX150" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AY150" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ150" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BA150" t="n">
-        <v>1.13</v>
-      </c>
       <c r="BB150" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="BC150" t="n">
-        <v>1.56</v>
+        <v>2.04</v>
       </c>
       <c r="BD150" t="n">
-        <v>1.88</v>
+        <v>2.67</v>
       </c>
       <c r="BE150" t="n">
-        <v>2.31</v>
+        <v>3.65</v>
       </c>
       <c r="BF150" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG150" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI150" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="BJ150" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK150" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151">
@@ -31209,7 +31209,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>3543349</v>
+        <v>3543350</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -31229,35 +31229,35 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Hirnyk</t>
+          <t>Dynamo Kyiv</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Minai</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M152" t="n">
         <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>['50']</t>
+          <t>['35', '62']</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -31266,145 +31266,145 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R152" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S152" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T152" t="n">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="U152" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="V152" t="n">
-        <v>2.55</v>
+        <v>6.75</v>
       </c>
       <c r="W152" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC152" t="n">
         <v>1.34</v>
       </c>
-      <c r="X152" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y152" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Z152" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AA152" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AB152" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC152" t="n">
-        <v>3.64</v>
-      </c>
       <c r="AD152" t="n">
-        <v>3.64</v>
+        <v>5</v>
       </c>
       <c r="AE152" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="AF152" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AG152" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH152" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI152" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AJ152" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="AK152" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AL152" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="AM152" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="AN152" t="n">
-        <v>1.73</v>
+        <v>1.07</v>
       </c>
       <c r="AO152" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.29</v>
+        <v>3.2</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="AR152" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.73</v>
+        <v>1.09</v>
       </c>
       <c r="AU152" t="n">
-        <v>1.16</v>
+        <v>1.57</v>
       </c>
       <c r="AV152" t="n">
-        <v>1.45</v>
+        <v>1.06</v>
       </c>
       <c r="AW152" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AX152" t="n">
-        <v>2.15</v>
+        <v>1.12</v>
       </c>
       <c r="AY152" t="n">
-        <v>7</v>
+        <v>13.25</v>
       </c>
       <c r="AZ152" t="n">
-        <v>2.15</v>
+        <v>7.2</v>
       </c>
       <c r="BA152" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="BB152" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="BC152" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="BD152" t="n">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="BE152" t="n">
-        <v>2.65</v>
+        <v>3.04</v>
       </c>
       <c r="BF152" t="n">
         <v>6</v>
       </c>
       <c r="BG152" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BH152" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BI152" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ152" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BK152" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -31412,7 +31412,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>3543350</v>
+        <v>3543349</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -31432,35 +31432,35 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv</t>
+          <t>Hirnyk</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Minai</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M153" t="n">
         <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>['35', '62']</t>
+          <t>['50']</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
@@ -31469,145 +31469,145 @@
         </is>
       </c>
       <c r="Q153" t="n">
+        <v>3</v>
+      </c>
+      <c r="R153" t="n">
         <v>4</v>
       </c>
-      <c r="R153" t="n">
-        <v>8</v>
-      </c>
       <c r="S153" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T153" t="n">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="U153" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="V153" t="n">
-        <v>6.75</v>
+        <v>2.55</v>
       </c>
       <c r="W153" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP153" t="n">
         <v>1.29</v>
       </c>
-      <c r="X153" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y153" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Z153" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AA153" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB153" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC153" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AD153" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE153" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF153" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG153" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH153" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI153" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AJ153" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AK153" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AL153" t="n">
+      <c r="AQ153" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD153" t="n">
         <v>2.05</v>
       </c>
-      <c r="AM153" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AN153" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AO153" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AP153" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AQ153" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AR153" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS153" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT153" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AU153" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AV153" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AW153" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AX153" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AY153" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="AZ153" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BA153" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB153" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BC153" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BD153" t="n">
-        <v>2.29</v>
-      </c>
       <c r="BE153" t="n">
-        <v>3.04</v>
+        <v>2.65</v>
       </c>
       <c r="BF153" t="n">
         <v>6</v>
       </c>
       <c r="BG153" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH153" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BI153" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ153" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BK153" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154">
